--- a/Projects/MARSRU2_SAND/Data/2019/MARS KPIs.xlsx
+++ b/Projects/MARSRU2_SAND/Data/2019/MARS KPIs.xlsx
@@ -17,6 +17,7 @@
     <sheet name="сцены" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">KPI!$B$1:$Y$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">KPI!$B$1:$Y$45</definedName>
@@ -42,6 +43,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'4317'!$A$1:$C$54</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="292">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -904,9 +906,6 @@
     <t xml:space="preserve">Grocery Магазин у дома (100-299)</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;8 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Grocery Магазин у дома (300-449)</t>
   </si>
   <si>
@@ -1532,6 +1531,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1540,29 +1543,29 @@
   <dimension ref="1:53"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
+      <selection pane="bottomLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="3" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="95.7651821862348"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="37.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="41.668016194332"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="96.6194331983806"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="2" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="6" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="6" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="23" min="17" style="3" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="3" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="3" width="18.1012145748988"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="22.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="26" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -46395,8 +46398,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="47" width="9"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -47253,20 +47256,20 @@
   <dimension ref="1:259"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="topLeft" activeCell="G44" activeCellId="0" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="49" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="49" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="47" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="47" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="49" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="47" width="25.8137651821862"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="47" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.1052631578947"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -47429,8 +47432,8 @@
       <c r="F3" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>250</v>
+      <c r="G3" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>248</v>
@@ -47441,7 +47444,7 @@
         <v>245</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" s="47" t="n">
         <v>0</v>
@@ -47455,8 +47458,8 @@
       <c r="F4" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>250</v>
+      <c r="G4" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>248</v>
@@ -47467,7 +47470,7 @@
         <v>245</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C5" s="47" t="n">
         <v>0</v>
@@ -47481,8 +47484,8 @@
       <c r="F5" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>250</v>
+      <c r="G5" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>248</v>
@@ -47493,7 +47496,7 @@
         <v>245</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C6" s="47" t="n">
         <v>0</v>
@@ -47507,8 +47510,8 @@
       <c r="F6" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>250</v>
+      <c r="G6" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>248</v>
@@ -47516,7 +47519,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" s="57" t="s">
         <v>246</v>
@@ -47533,8 +47536,8 @@
       <c r="F7" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>250</v>
+      <c r="G7" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>248</v>
@@ -47542,7 +47545,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" s="57" t="s">
         <v>249</v>
@@ -47559,8 +47562,8 @@
       <c r="F8" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>250</v>
+      <c r="G8" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>248</v>
@@ -47568,10 +47571,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C9" s="47" t="n">
         <v>0</v>
@@ -47585,8 +47588,8 @@
       <c r="F9" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>250</v>
+      <c r="G9" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>248</v>
@@ -47594,10 +47597,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C10" s="47" t="n">
         <v>0</v>
@@ -47611,8 +47614,8 @@
       <c r="F10" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>250</v>
+      <c r="G10" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>248</v>
@@ -47620,10 +47623,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C11" s="47" t="n">
         <v>0</v>
@@ -47637,8 +47640,8 @@
       <c r="F11" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>250</v>
+      <c r="G11" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>248</v>
@@ -47646,7 +47649,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B12" s="57" t="s">
         <v>246</v>
@@ -47663,8 +47666,8 @@
       <c r="F12" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>250</v>
+      <c r="G12" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>248</v>
@@ -47672,7 +47675,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B13" s="57" t="s">
         <v>249</v>
@@ -47689,8 +47692,8 @@
       <c r="F13" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>250</v>
+      <c r="G13" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>248</v>
@@ -47698,10 +47701,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C14" s="47" t="n">
         <v>0</v>
@@ -47715,8 +47718,8 @@
       <c r="F14" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>250</v>
+      <c r="G14" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>248</v>
@@ -47724,10 +47727,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" s="47" t="n">
         <v>0</v>
@@ -47741,8 +47744,8 @@
       <c r="F15" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>250</v>
+      <c r="G15" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>248</v>
@@ -47750,10 +47753,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C16" s="47" t="n">
         <v>0</v>
@@ -47767,8 +47770,8 @@
       <c r="F16" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>250</v>
+      <c r="G16" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>248</v>
@@ -47779,7 +47782,7 @@
         <v>245</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="47" t="n">
         <v>0</v>
@@ -47793,8 +47796,8 @@
       <c r="F17" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>250</v>
+      <c r="G17" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>248</v>
@@ -47805,7 +47808,7 @@
         <v>245</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C18" s="47" t="n">
         <v>0</v>
@@ -47819,8 +47822,8 @@
       <c r="F18" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>250</v>
+      <c r="G18" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>248</v>
@@ -47831,7 +47834,7 @@
         <v>245</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C19" s="47" t="n">
         <v>0</v>
@@ -47845,8 +47848,8 @@
       <c r="F19" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>250</v>
+      <c r="G19" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>248</v>
@@ -47857,7 +47860,7 @@
         <v>245</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C20" s="47" t="n">
         <v>0</v>
@@ -47871,8 +47874,8 @@
       <c r="F20" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="G20" s="0" t="s">
-        <v>250</v>
+      <c r="G20" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>248</v>
@@ -47883,7 +47886,7 @@
         <v>245</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C21" s="47" t="n">
         <v>0</v>
@@ -47897,8 +47900,8 @@
       <c r="F21" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>250</v>
+      <c r="G21" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>248</v>
@@ -47909,7 +47912,7 @@
         <v>245</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C22" s="47" t="n">
         <v>0</v>
@@ -47923,8 +47926,8 @@
       <c r="F22" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="G22" s="0" t="s">
-        <v>250</v>
+      <c r="G22" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>248</v>
@@ -47932,10 +47935,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C23" s="47" t="n">
         <v>0</v>
@@ -47949,8 +47952,8 @@
       <c r="F23" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="G23" s="0" t="s">
-        <v>250</v>
+      <c r="G23" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>248</v>
@@ -47958,10 +47961,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C24" s="47" t="n">
         <v>0</v>
@@ -47975,8 +47978,8 @@
       <c r="F24" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="G24" s="0" t="s">
-        <v>250</v>
+      <c r="G24" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>248</v>
@@ -47984,10 +47987,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C25" s="47" t="n">
         <v>0</v>
@@ -48001,8 +48004,8 @@
       <c r="F25" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="G25" s="0" t="s">
-        <v>250</v>
+      <c r="G25" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>248</v>
@@ -48010,10 +48013,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C26" s="47" t="n">
         <v>0</v>
@@ -48027,8 +48030,8 @@
       <c r="F26" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="G26" s="0" t="s">
-        <v>250</v>
+      <c r="G26" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>248</v>
@@ -48036,10 +48039,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C27" s="47" t="n">
         <v>0</v>
@@ -48053,8 +48056,8 @@
       <c r="F27" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>250</v>
+      <c r="G27" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>248</v>
@@ -48062,10 +48065,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C28" s="47" t="n">
         <v>0</v>
@@ -48079,8 +48082,8 @@
       <c r="F28" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="G28" s="0" t="s">
-        <v>250</v>
+      <c r="G28" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>248</v>
@@ -48088,10 +48091,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B29" s="57" t="s">
         <v>255</v>
-      </c>
-      <c r="B29" s="57" t="s">
-        <v>256</v>
       </c>
       <c r="C29" s="47" t="n">
         <v>0</v>
@@ -48105,8 +48108,8 @@
       <c r="F29" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="G29" s="0" t="s">
-        <v>250</v>
+      <c r="G29" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>248</v>
@@ -48114,10 +48117,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C30" s="47" t="n">
         <v>0</v>
@@ -48131,8 +48134,8 @@
       <c r="F30" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="G30" s="0" t="s">
-        <v>250</v>
+      <c r="G30" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>248</v>
@@ -48140,10 +48143,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C31" s="47" t="n">
         <v>0</v>
@@ -48157,8 +48160,8 @@
       <c r="F31" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="G31" s="0" t="s">
-        <v>250</v>
+      <c r="G31" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>248</v>
@@ -48166,10 +48169,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C32" s="47" t="n">
         <v>0</v>
@@ -48183,8 +48186,8 @@
       <c r="F32" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="G32" s="0" t="s">
-        <v>250</v>
+      <c r="G32" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>248</v>
@@ -48192,10 +48195,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C33" s="47" t="n">
         <v>0</v>
@@ -48209,8 +48212,8 @@
       <c r="F33" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="G33" s="0" t="s">
-        <v>250</v>
+      <c r="G33" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>248</v>
@@ -48218,10 +48221,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C34" s="47" t="n">
         <v>0</v>
@@ -48235,8 +48238,8 @@
       <c r="F34" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="G34" s="0" t="s">
-        <v>250</v>
+      <c r="G34" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>248</v>
@@ -48247,7 +48250,7 @@
         <v>245</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C35" s="47" t="n">
         <v>0</v>
@@ -48261,8 +48264,8 @@
       <c r="F35" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="G35" s="0" t="s">
-        <v>250</v>
+      <c r="G35" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>248</v>
@@ -48273,7 +48276,7 @@
         <v>245</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C36" s="47" t="n">
         <v>0</v>
@@ -48287,8 +48290,8 @@
       <c r="F36" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="G36" s="0" t="s">
-        <v>250</v>
+      <c r="G36" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>248</v>
@@ -48299,7 +48302,7 @@
         <v>245</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C37" s="47" t="n">
         <v>0</v>
@@ -48313,8 +48316,8 @@
       <c r="F37" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="G37" s="0" t="s">
-        <v>250</v>
+      <c r="G37" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>248</v>
@@ -48322,10 +48325,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B38" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C38" s="47" t="n">
         <v>0</v>
@@ -48339,8 +48342,8 @@
       <c r="F38" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="G38" s="0" t="s">
-        <v>250</v>
+      <c r="G38" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>248</v>
@@ -48348,10 +48351,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B39" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C39" s="47" t="n">
         <v>0</v>
@@ -48365,8 +48368,8 @@
       <c r="F39" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="G39" s="0" t="s">
-        <v>250</v>
+      <c r="G39" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>248</v>
@@ -48374,10 +48377,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B40" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C40" s="47" t="n">
         <v>0</v>
@@ -48391,8 +48394,8 @@
       <c r="F40" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="G40" s="0" t="s">
-        <v>250</v>
+      <c r="G40" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>248</v>
@@ -48400,10 +48403,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C41" s="47" t="n">
         <v>0</v>
@@ -48417,8 +48420,8 @@
       <c r="F41" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="G41" s="0" t="s">
-        <v>250</v>
+      <c r="G41" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>248</v>
@@ -48426,10 +48429,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C42" s="47" t="n">
         <v>0</v>
@@ -48443,8 +48446,8 @@
       <c r="F42" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="G42" s="0" t="s">
-        <v>250</v>
+      <c r="G42" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>248</v>
@@ -48452,10 +48455,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C43" s="47" t="n">
         <v>0</v>
@@ -48469,8 +48472,8 @@
       <c r="F43" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="G43" s="0" t="s">
-        <v>250</v>
+      <c r="G43" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>248</v>
@@ -48496,16 +48499,16 @@
         <v>179</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I44" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J44" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48528,16 +48531,16 @@
         <v>179</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I45" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J45" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48545,7 +48548,7 @@
         <v>245</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C46" s="47" t="n">
         <v>1.6</v>
@@ -48560,16 +48563,16 @@
         <v>179</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I46" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J46" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J46" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48577,7 +48580,7 @@
         <v>245</v>
       </c>
       <c r="B47" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C47" s="47" t="n">
         <v>1.6</v>
@@ -48592,16 +48595,16 @@
         <v>179</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I47" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J47" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J47" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48609,7 +48612,7 @@
         <v>245</v>
       </c>
       <c r="B48" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C48" s="47" t="n">
         <v>1.6</v>
@@ -48624,21 +48627,21 @@
         <v>179</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I48" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J48" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J48" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B49" s="57" t="s">
         <v>246</v>
@@ -48656,21 +48659,21 @@
         <v>195</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I49" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J49" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J49" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B50" s="57" t="s">
         <v>249</v>
@@ -48688,24 +48691,24 @@
         <v>195</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I50" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J50" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J50" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B51" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C51" s="47" t="n">
         <v>1.6</v>
@@ -48720,24 +48723,24 @@
         <v>195</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I51" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J51" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J51" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B52" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C52" s="47" t="n">
         <v>1.6</v>
@@ -48752,24 +48755,24 @@
         <v>195</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I52" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J52" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C53" s="47" t="n">
         <v>1.6</v>
@@ -48784,21 +48787,21 @@
         <v>195</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I53" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J53" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J53" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B54" s="57" t="s">
         <v>246</v>
@@ -48816,21 +48819,21 @@
         <v>211</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I54" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J54" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B55" s="57" t="s">
         <v>249</v>
@@ -48848,24 +48851,24 @@
         <v>211</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I55" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J55" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J55" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C56" s="47" t="n">
         <v>1.6</v>
@@ -48880,24 +48883,24 @@
         <v>211</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I56" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J56" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J56" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C57" s="47" t="n">
         <v>1.6</v>
@@ -48912,24 +48915,24 @@
         <v>211</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I57" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J57" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C58" s="47" t="n">
         <v>1.6</v>
@@ -48944,16 +48947,16 @@
         <v>211</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I58" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J58" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J58" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48961,7 +48964,7 @@
         <v>245</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C59" s="47" t="n">
         <v>1.6</v>
@@ -48976,16 +48979,16 @@
         <v>180</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I59" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J59" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J59" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48993,7 +48996,7 @@
         <v>245</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C60" s="47" t="n">
         <v>1.6</v>
@@ -49008,16 +49011,16 @@
         <v>180</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I60" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J60" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J60" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49025,7 +49028,7 @@
         <v>245</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C61" s="47" t="n">
         <v>1.6</v>
@@ -49040,16 +49043,16 @@
         <v>180</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I61" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J61" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49057,7 +49060,7 @@
         <v>245</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C62" s="47" t="n">
         <v>1.6</v>
@@ -49072,16 +49075,16 @@
         <v>180</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I62" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J62" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J62" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49089,7 +49092,7 @@
         <v>245</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C63" s="47" t="n">
         <v>1.6</v>
@@ -49104,16 +49107,16 @@
         <v>180</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I63" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J63" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49121,7 +49124,7 @@
         <v>245</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C64" s="47" t="n">
         <v>1.6</v>
@@ -49136,24 +49139,24 @@
         <v>180</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I64" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J64" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J64" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C65" s="47" t="n">
         <v>1.6</v>
@@ -49168,24 +49171,24 @@
         <v>196</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I65" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J65" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C66" s="47" t="n">
         <v>1.6</v>
@@ -49200,24 +49203,24 @@
         <v>196</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I66" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J66" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C67" s="47" t="n">
         <v>1.6</v>
@@ -49232,24 +49235,24 @@
         <v>196</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I67" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J67" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J67" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B68" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C68" s="47" t="n">
         <v>1.6</v>
@@ -49264,24 +49267,24 @@
         <v>196</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I68" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J68" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J68" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B69" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C69" s="47" t="n">
         <v>1.6</v>
@@ -49296,24 +49299,24 @@
         <v>196</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I69" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J69" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J69" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B70" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C70" s="47" t="n">
         <v>1.6</v>
@@ -49328,24 +49331,24 @@
         <v>196</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I70" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J70" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J70" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B71" s="57" t="s">
         <v>255</v>
-      </c>
-      <c r="B71" s="57" t="s">
-        <v>256</v>
       </c>
       <c r="C71" s="47" t="n">
         <v>1.6</v>
@@ -49360,24 +49363,24 @@
         <v>212</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I71" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J71" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C72" s="47" t="n">
         <v>1.6</v>
@@ -49392,24 +49395,24 @@
         <v>212</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I72" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J72" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J72" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C73" s="47" t="n">
         <v>1.6</v>
@@ -49424,24 +49427,24 @@
         <v>212</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I73" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J73" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J73" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B74" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C74" s="47" t="n">
         <v>1.6</v>
@@ -49456,24 +49459,24 @@
         <v>212</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I74" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J74" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J74" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C75" s="47" t="n">
         <v>1.6</v>
@@ -49488,24 +49491,24 @@
         <v>212</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I75" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J75" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C76" s="47" t="n">
         <v>1.6</v>
@@ -49520,16 +49523,16 @@
         <v>212</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I76" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J76" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J76" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49537,7 +49540,7 @@
         <v>245</v>
       </c>
       <c r="B77" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C77" s="47" t="n">
         <v>1.6</v>
@@ -49552,16 +49555,16 @@
         <v>178</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I77" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J77" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J77" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49569,7 +49572,7 @@
         <v>245</v>
       </c>
       <c r="B78" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C78" s="47" t="n">
         <v>1.6</v>
@@ -49584,16 +49587,16 @@
         <v>178</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I78" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J78" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J78" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49601,7 +49604,7 @@
         <v>245</v>
       </c>
       <c r="B79" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C79" s="47" t="n">
         <v>1.6</v>
@@ -49616,24 +49619,24 @@
         <v>178</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I79" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J79" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J79" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B80" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C80" s="47" t="n">
         <v>1.6</v>
@@ -49648,24 +49651,24 @@
         <v>194</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I80" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J80" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J80" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B81" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C81" s="47" t="n">
         <v>1.6</v>
@@ -49680,24 +49683,24 @@
         <v>194</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I81" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J81" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J81" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B82" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C82" s="47" t="n">
         <v>1.6</v>
@@ -49712,24 +49715,24 @@
         <v>194</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I82" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J82" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J82" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B83" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C83" s="47" t="n">
         <v>1.6</v>
@@ -49744,24 +49747,24 @@
         <v>210</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I83" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J83" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J83" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B84" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C84" s="47" t="n">
         <v>1.6</v>
@@ -49776,24 +49779,24 @@
         <v>210</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I84" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J84" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J84" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B85" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C85" s="47" t="n">
         <v>1.6</v>
@@ -49808,16 +49811,16 @@
         <v>210</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I85" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J85" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J85" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49840,16 +49843,16 @@
         <v>182</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49872,16 +49875,16 @@
         <v>182</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49889,7 +49892,7 @@
         <v>245</v>
       </c>
       <c r="B88" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C88" s="56" t="n">
         <v>2.3</v>
@@ -49904,16 +49907,16 @@
         <v>182</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49921,7 +49924,7 @@
         <v>245</v>
       </c>
       <c r="B89" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C89" s="56" t="n">
         <v>2.3</v>
@@ -49936,16 +49939,16 @@
         <v>182</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49953,7 +49956,7 @@
         <v>245</v>
       </c>
       <c r="B90" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C90" s="56" t="n">
         <v>2.3</v>
@@ -49968,21 +49971,21 @@
         <v>182</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B91" s="57" t="s">
         <v>246</v>
@@ -50000,21 +50003,21 @@
         <v>198</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B92" s="57" t="s">
         <v>249</v>
@@ -50032,24 +50035,24 @@
         <v>198</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B93" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C93" s="56" t="n">
         <v>2.3</v>
@@ -50064,24 +50067,24 @@
         <v>198</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B94" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C94" s="56" t="n">
         <v>2.3</v>
@@ -50096,24 +50099,24 @@
         <v>198</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B95" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C95" s="56" t="n">
         <v>2.3</v>
@@ -50128,21 +50131,21 @@
         <v>198</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B96" s="57" t="s">
         <v>246</v>
@@ -50160,21 +50163,21 @@
         <v>214</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B97" s="57" t="s">
         <v>249</v>
@@ -50192,24 +50195,24 @@
         <v>214</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B98" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C98" s="56" t="n">
         <v>2.3</v>
@@ -50224,24 +50227,24 @@
         <v>214</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B99" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C99" s="56" t="n">
         <v>2.3</v>
@@ -50256,24 +50259,24 @@
         <v>214</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B100" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C100" s="56" t="n">
         <v>2.3</v>
@@ -50288,16 +50291,16 @@
         <v>214</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50305,7 +50308,7 @@
         <v>245</v>
       </c>
       <c r="B101" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C101" s="56" t="n">
         <v>2.3</v>
@@ -50320,16 +50323,16 @@
         <v>183</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50337,7 +50340,7 @@
         <v>245</v>
       </c>
       <c r="B102" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C102" s="56" t="n">
         <v>2.3</v>
@@ -50352,16 +50355,16 @@
         <v>183</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50369,7 +50372,7 @@
         <v>245</v>
       </c>
       <c r="B103" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C103" s="56" t="n">
         <v>2.3</v>
@@ -50384,16 +50387,16 @@
         <v>183</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50401,7 +50404,7 @@
         <v>245</v>
       </c>
       <c r="B104" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C104" s="56" t="n">
         <v>2.3</v>
@@ -50416,16 +50419,16 @@
         <v>183</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50433,7 +50436,7 @@
         <v>245</v>
       </c>
       <c r="B105" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C105" s="56" t="n">
         <v>2.3</v>
@@ -50448,16 +50451,16 @@
         <v>183</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H105" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50465,7 +50468,7 @@
         <v>245</v>
       </c>
       <c r="B106" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C106" s="56" t="n">
         <v>2.3</v>
@@ -50480,24 +50483,24 @@
         <v>183</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H106" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B107" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C107" s="56" t="n">
         <v>2.3</v>
@@ -50512,24 +50515,24 @@
         <v>199</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H107" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B108" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C108" s="56" t="n">
         <v>2.3</v>
@@ -50544,24 +50547,24 @@
         <v>199</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H108" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B109" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C109" s="56" t="n">
         <v>2.3</v>
@@ -50576,24 +50579,24 @@
         <v>199</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H109" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B110" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C110" s="56" t="n">
         <v>2.3</v>
@@ -50608,24 +50611,24 @@
         <v>199</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H110" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B111" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C111" s="56" t="n">
         <v>2.3</v>
@@ -50640,24 +50643,24 @@
         <v>199</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H111" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B112" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C112" s="56" t="n">
         <v>2.3</v>
@@ -50672,24 +50675,24 @@
         <v>199</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H112" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B113" s="57" t="s">
         <v>255</v>
-      </c>
-      <c r="B113" s="57" t="s">
-        <v>256</v>
       </c>
       <c r="C113" s="56" t="n">
         <v>2.3</v>
@@ -50704,24 +50707,24 @@
         <v>215</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H113" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B114" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C114" s="56" t="n">
         <v>2.3</v>
@@ -50736,24 +50739,24 @@
         <v>215</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H114" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B115" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C115" s="56" t="n">
         <v>2.3</v>
@@ -50768,24 +50771,24 @@
         <v>215</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H115" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B116" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C116" s="56" t="n">
         <v>2.3</v>
@@ -50800,24 +50803,24 @@
         <v>215</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H116" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B117" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C117" s="56" t="n">
         <v>2.3</v>
@@ -50832,24 +50835,24 @@
         <v>215</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H117" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B118" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C118" s="56" t="n">
         <v>2.3</v>
@@ -50864,16 +50867,16 @@
         <v>215</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H118" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50881,7 +50884,7 @@
         <v>245</v>
       </c>
       <c r="B119" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C119" s="56" t="n">
         <v>2.3</v>
@@ -50896,16 +50899,16 @@
         <v>181</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H119" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50913,7 +50916,7 @@
         <v>245</v>
       </c>
       <c r="B120" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C120" s="56" t="n">
         <v>2.3</v>
@@ -50928,16 +50931,16 @@
         <v>181</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H120" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50945,7 +50948,7 @@
         <v>245</v>
       </c>
       <c r="B121" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C121" s="56" t="n">
         <v>2.3</v>
@@ -50960,24 +50963,24 @@
         <v>181</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H121" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B122" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C122" s="56" t="n">
         <v>2.3</v>
@@ -50992,24 +50995,24 @@
         <v>197</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H122" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B123" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C123" s="56" t="n">
         <v>2.3</v>
@@ -51024,24 +51027,24 @@
         <v>197</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H123" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B124" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C124" s="56" t="n">
         <v>2.3</v>
@@ -51056,24 +51059,24 @@
         <v>197</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H124" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B125" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C125" s="56" t="n">
         <v>2.3</v>
@@ -51088,24 +51091,24 @@
         <v>213</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H125" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B126" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C126" s="56" t="n">
         <v>2.3</v>
@@ -51120,24 +51123,24 @@
         <v>213</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H126" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B127" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C127" s="56" t="n">
         <v>2.3</v>
@@ -51152,16 +51155,16 @@
         <v>213</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H127" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51175,7 +51178,7 @@
         <v>2.8</v>
       </c>
       <c r="D128" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E128" s="47" t="n">
         <v>4156</v>
@@ -51184,16 +51187,16 @@
         <v>185</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H128" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51207,7 +51210,7 @@
         <v>2.8</v>
       </c>
       <c r="D129" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E129" s="47" t="n">
         <v>4156</v>
@@ -51216,16 +51219,16 @@
         <v>185</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H129" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51233,13 +51236,13 @@
         <v>245</v>
       </c>
       <c r="B130" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C130" s="56" t="n">
         <v>2.8</v>
       </c>
       <c r="D130" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E130" s="47" t="n">
         <v>4156</v>
@@ -51248,16 +51251,16 @@
         <v>185</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H130" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51265,13 +51268,13 @@
         <v>245</v>
       </c>
       <c r="B131" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C131" s="56" t="n">
         <v>2.8</v>
       </c>
       <c r="D131" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E131" s="47" t="n">
         <v>4156</v>
@@ -51280,16 +51283,16 @@
         <v>185</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H131" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51297,13 +51300,13 @@
         <v>245</v>
       </c>
       <c r="B132" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C132" s="56" t="n">
         <v>2.8</v>
       </c>
       <c r="D132" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E132" s="47" t="n">
         <v>4156</v>
@@ -51312,21 +51315,21 @@
         <v>185</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H132" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B133" s="57" t="s">
         <v>246</v>
@@ -51335,7 +51338,7 @@
         <v>2.8</v>
       </c>
       <c r="D133" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E133" s="47" t="n">
         <v>4176</v>
@@ -51344,21 +51347,21 @@
         <v>201</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H133" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B134" s="57" t="s">
         <v>249</v>
@@ -51367,7 +51370,7 @@
         <v>2.8</v>
       </c>
       <c r="D134" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E134" s="47" t="n">
         <v>4176</v>
@@ -51376,30 +51379,30 @@
         <v>201</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H134" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J134" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B135" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C135" s="56" t="n">
         <v>2.8</v>
       </c>
       <c r="D135" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E135" s="47" t="n">
         <v>4176</v>
@@ -51408,30 +51411,30 @@
         <v>201</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H135" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B136" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C136" s="56" t="n">
         <v>2.8</v>
       </c>
       <c r="D136" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E136" s="47" t="n">
         <v>4176</v>
@@ -51440,30 +51443,30 @@
         <v>201</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H136" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B137" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C137" s="56" t="n">
         <v>2.8</v>
       </c>
       <c r="D137" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E137" s="47" t="n">
         <v>4176</v>
@@ -51472,21 +51475,21 @@
         <v>201</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H137" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B138" s="57" t="s">
         <v>246</v>
@@ -51495,7 +51498,7 @@
         <v>2.8</v>
       </c>
       <c r="D138" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E138" s="47" t="n">
         <v>4196</v>
@@ -51504,21 +51507,21 @@
         <v>217</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H138" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B139" s="57" t="s">
         <v>249</v>
@@ -51527,7 +51530,7 @@
         <v>2.8</v>
       </c>
       <c r="D139" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E139" s="47" t="n">
         <v>4196</v>
@@ -51536,30 +51539,30 @@
         <v>217</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H139" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B140" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C140" s="56" t="n">
         <v>2.8</v>
       </c>
       <c r="D140" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E140" s="47" t="n">
         <v>4196</v>
@@ -51568,30 +51571,30 @@
         <v>217</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H140" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B141" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C141" s="56" t="n">
         <v>2.8</v>
       </c>
       <c r="D141" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E141" s="47" t="n">
         <v>4196</v>
@@ -51600,30 +51603,30 @@
         <v>217</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H141" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B142" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C142" s="56" t="n">
         <v>2.8</v>
       </c>
       <c r="D142" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E142" s="47" t="n">
         <v>4196</v>
@@ -51632,16 +51635,16 @@
         <v>217</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H142" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51649,7 +51652,7 @@
         <v>245</v>
       </c>
       <c r="B143" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C143" s="56" t="n">
         <v>2.8</v>
@@ -51664,16 +51667,16 @@
         <v>186</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H143" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51681,7 +51684,7 @@
         <v>245</v>
       </c>
       <c r="B144" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C144" s="56" t="n">
         <v>2.8</v>
@@ -51696,16 +51699,16 @@
         <v>186</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H144" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51713,7 +51716,7 @@
         <v>245</v>
       </c>
       <c r="B145" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C145" s="56" t="n">
         <v>2.8</v>
@@ -51728,16 +51731,16 @@
         <v>186</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H145" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51745,7 +51748,7 @@
         <v>245</v>
       </c>
       <c r="B146" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C146" s="56" t="n">
         <v>2.8</v>
@@ -51760,16 +51763,16 @@
         <v>186</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H146" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51777,7 +51780,7 @@
         <v>245</v>
       </c>
       <c r="B147" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C147" s="56" t="n">
         <v>2.8</v>
@@ -51792,16 +51795,16 @@
         <v>186</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H147" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51809,7 +51812,7 @@
         <v>245</v>
       </c>
       <c r="B148" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C148" s="56" t="n">
         <v>2.8</v>
@@ -51824,24 +51827,24 @@
         <v>186</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H148" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B149" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C149" s="56" t="n">
         <v>2.8</v>
@@ -51856,24 +51859,24 @@
         <v>202</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H149" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B150" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C150" s="56" t="n">
         <v>2.8</v>
@@ -51888,24 +51891,24 @@
         <v>202</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H150" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B151" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C151" s="56" t="n">
         <v>2.8</v>
@@ -51920,24 +51923,24 @@
         <v>202</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H151" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B152" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C152" s="56" t="n">
         <v>2.8</v>
@@ -51952,24 +51955,24 @@
         <v>202</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H152" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B153" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C153" s="56" t="n">
         <v>2.8</v>
@@ -51984,24 +51987,24 @@
         <v>202</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H153" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B154" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C154" s="56" t="n">
         <v>2.8</v>
@@ -52016,24 +52019,24 @@
         <v>202</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H154" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B155" s="57" t="s">
         <v>255</v>
-      </c>
-      <c r="B155" s="57" t="s">
-        <v>256</v>
       </c>
       <c r="C155" s="56" t="n">
         <v>2.8</v>
@@ -52048,24 +52051,24 @@
         <v>218</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H155" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B156" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C156" s="56" t="n">
         <v>2.8</v>
@@ -52080,24 +52083,24 @@
         <v>218</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H156" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B157" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C157" s="56" t="n">
         <v>2.8</v>
@@ -52112,24 +52115,24 @@
         <v>218</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H157" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B158" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C158" s="56" t="n">
         <v>2.8</v>
@@ -52144,24 +52147,24 @@
         <v>218</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H158" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B159" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C159" s="56" t="n">
         <v>2.8</v>
@@ -52176,24 +52179,24 @@
         <v>218</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H159" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B160" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C160" s="56" t="n">
         <v>2.8</v>
@@ -52208,16 +52211,16 @@
         <v>218</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H160" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52225,7 +52228,7 @@
         <v>245</v>
       </c>
       <c r="B161" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C161" s="56" t="n">
         <v>2.8</v>
@@ -52240,16 +52243,16 @@
         <v>184</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H161" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52257,7 +52260,7 @@
         <v>245</v>
       </c>
       <c r="B162" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C162" s="56" t="n">
         <v>2.8</v>
@@ -52272,16 +52275,16 @@
         <v>184</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H162" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52289,7 +52292,7 @@
         <v>245</v>
       </c>
       <c r="B163" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C163" s="56" t="n">
         <v>2.8</v>
@@ -52304,24 +52307,24 @@
         <v>184</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H163" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B164" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C164" s="56" t="n">
         <v>2.8</v>
@@ -52336,24 +52339,24 @@
         <v>200</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H164" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C165" s="56" t="n">
         <v>2.8</v>
@@ -52368,24 +52371,24 @@
         <v>200</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H165" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B166" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C166" s="56" t="n">
         <v>2.8</v>
@@ -52400,24 +52403,24 @@
         <v>200</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H166" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B167" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C167" s="56" t="n">
         <v>2.8</v>
@@ -52432,24 +52435,24 @@
         <v>216</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H167" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J167" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B168" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C168" s="56" t="n">
         <v>2.8</v>
@@ -52464,24 +52467,24 @@
         <v>216</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H168" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B169" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C169" s="56" t="n">
         <v>2.8</v>
@@ -52496,16 +52499,16 @@
         <v>216</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H169" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52513,7 +52516,7 @@
         <v>245</v>
       </c>
       <c r="B170" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C170" s="56" t="n">
         <v>3.8</v>
@@ -52528,16 +52531,16 @@
         <v>188</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H170" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52545,7 +52548,7 @@
         <v>245</v>
       </c>
       <c r="B171" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C171" s="56" t="n">
         <v>3.8</v>
@@ -52560,16 +52563,16 @@
         <v>188</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H171" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I171" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52577,7 +52580,7 @@
         <v>245</v>
       </c>
       <c r="B172" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C172" s="56" t="n">
         <v>3.8</v>
@@ -52592,16 +52595,16 @@
         <v>188</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H172" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52609,7 +52612,7 @@
         <v>245</v>
       </c>
       <c r="B173" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C173" s="56" t="n">
         <v>3.8</v>
@@ -52624,16 +52627,16 @@
         <v>188</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H173" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I173" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J173" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52641,7 +52644,7 @@
         <v>245</v>
       </c>
       <c r="B174" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C174" s="56" t="n">
         <v>3.8</v>
@@ -52656,24 +52659,24 @@
         <v>188</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H174" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B175" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C175" s="56" t="n">
         <v>3.8</v>
@@ -52688,24 +52691,24 @@
         <v>204</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H175" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I175" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J175" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B176" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C176" s="56" t="n">
         <v>3.8</v>
@@ -52720,24 +52723,24 @@
         <v>204</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H176" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J176" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B177" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C177" s="56" t="n">
         <v>3.8</v>
@@ -52752,24 +52755,24 @@
         <v>204</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H177" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J177" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B178" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C178" s="56" t="n">
         <v>3.8</v>
@@ -52784,24 +52787,24 @@
         <v>204</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H178" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I178" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J178" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B179" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C179" s="56" t="n">
         <v>3.8</v>
@@ -52816,24 +52819,24 @@
         <v>204</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H179" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I179" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J179" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B180" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C180" s="56" t="n">
         <v>3.8</v>
@@ -52848,24 +52851,24 @@
         <v>204</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H180" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I180" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J180" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B181" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C181" s="56" t="n">
         <v>3.8</v>
@@ -52880,24 +52883,24 @@
         <v>204</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H181" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I181" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B182" s="57" t="s">
         <v>255</v>
-      </c>
-      <c r="B182" s="57" t="s">
-        <v>256</v>
       </c>
       <c r="C182" s="56" t="n">
         <v>3.8</v>
@@ -52912,24 +52915,24 @@
         <v>220</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H182" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J182" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B183" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C183" s="56" t="n">
         <v>3.8</v>
@@ -52944,24 +52947,24 @@
         <v>220</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H183" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B184" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C184" s="56" t="n">
         <v>3.8</v>
@@ -52976,24 +52979,24 @@
         <v>220</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H184" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B185" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C185" s="56" t="n">
         <v>3.8</v>
@@ -53008,24 +53011,24 @@
         <v>220</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H185" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I185" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J185" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B186" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C186" s="56" t="n">
         <v>3.8</v>
@@ -53040,24 +53043,24 @@
         <v>220</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H186" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B187" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C187" s="56" t="n">
         <v>3.8</v>
@@ -53072,16 +53075,16 @@
         <v>220</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H187" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I187" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53089,7 +53092,7 @@
         <v>245</v>
       </c>
       <c r="B188" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C188" s="56" t="n">
         <v>3.8</v>
@@ -53104,16 +53107,16 @@
         <v>187</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H188" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53121,7 +53124,7 @@
         <v>245</v>
       </c>
       <c r="B189" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C189" s="56" t="n">
         <v>3.8</v>
@@ -53136,16 +53139,16 @@
         <v>187</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H189" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I189" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53153,7 +53156,7 @@
         <v>245</v>
       </c>
       <c r="B190" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C190" s="56" t="n">
         <v>3.8</v>
@@ -53168,24 +53171,24 @@
         <v>187</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H190" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I190" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B191" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C191" s="56" t="n">
         <v>3.8</v>
@@ -53200,24 +53203,24 @@
         <v>203</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H191" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B192" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C192" s="56" t="n">
         <v>3.8</v>
@@ -53232,24 +53235,24 @@
         <v>203</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H192" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B193" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C193" s="56" t="n">
         <v>3.8</v>
@@ -53264,24 +53267,24 @@
         <v>203</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H193" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I193" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B194" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C194" s="56" t="n">
         <v>3.8</v>
@@ -53296,24 +53299,24 @@
         <v>219</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H194" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I194" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B195" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C195" s="56" t="n">
         <v>3.8</v>
@@ -53328,24 +53331,24 @@
         <v>219</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H195" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I195" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B196" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C196" s="56" t="n">
         <v>3.8</v>
@@ -53360,16 +53363,16 @@
         <v>219</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H196" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53377,7 +53380,7 @@
         <v>245</v>
       </c>
       <c r="B197" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C197" s="56" t="n">
         <v>5</v>
@@ -53392,16 +53395,16 @@
         <v>193</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H197" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53409,7 +53412,7 @@
         <v>245</v>
       </c>
       <c r="B198" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C198" s="56" t="n">
         <v>5</v>
@@ -53424,16 +53427,16 @@
         <v>193</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H198" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I198" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J198" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53441,7 +53444,7 @@
         <v>245</v>
       </c>
       <c r="B199" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C199" s="56" t="n">
         <v>5</v>
@@ -53456,16 +53459,16 @@
         <v>193</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H199" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I199" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53473,7 +53476,7 @@
         <v>245</v>
       </c>
       <c r="B200" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C200" s="56" t="n">
         <v>5</v>
@@ -53488,16 +53491,16 @@
         <v>193</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H200" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I200" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53505,7 +53508,7 @@
         <v>245</v>
       </c>
       <c r="B201" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C201" s="56" t="n">
         <v>5</v>
@@ -53520,16 +53523,16 @@
         <v>193</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H201" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53537,7 +53540,7 @@
         <v>245</v>
       </c>
       <c r="B202" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C202" s="56" t="n">
         <v>5</v>
@@ -53552,24 +53555,24 @@
         <v>193</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H202" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I202" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B203" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C203" s="56" t="n">
         <v>5</v>
@@ -53584,24 +53587,24 @@
         <v>209</v>
       </c>
       <c r="G203" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H203" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I203" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J203" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B204" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C204" s="56" t="n">
         <v>5</v>
@@ -53616,24 +53619,24 @@
         <v>209</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H204" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I204" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J204" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B205" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C205" s="56" t="n">
         <v>5</v>
@@ -53648,24 +53651,24 @@
         <v>209</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H205" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I205" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B206" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C206" s="56" t="n">
         <v>5</v>
@@ -53680,24 +53683,24 @@
         <v>209</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H206" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I206" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J206" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B207" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C207" s="56" t="n">
         <v>5</v>
@@ -53712,24 +53715,24 @@
         <v>209</v>
       </c>
       <c r="G207" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H207" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I207" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J207" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B208" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C208" s="56" t="n">
         <v>5</v>
@@ -53744,24 +53747,24 @@
         <v>209</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H208" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I208" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B209" s="57" t="s">
         <v>255</v>
-      </c>
-      <c r="B209" s="57" t="s">
-        <v>256</v>
       </c>
       <c r="C209" s="56" t="n">
         <v>5</v>
@@ -53776,24 +53779,24 @@
         <v>225</v>
       </c>
       <c r="G209" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H209" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I209" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J209" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B210" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C210" s="56" t="n">
         <v>5</v>
@@ -53808,24 +53811,24 @@
         <v>225</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H210" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I210" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J210" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B211" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C211" s="56" t="n">
         <v>5</v>
@@ -53840,24 +53843,24 @@
         <v>225</v>
       </c>
       <c r="G211" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H211" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I211" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J211" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B212" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C212" s="56" t="n">
         <v>5</v>
@@ -53872,24 +53875,24 @@
         <v>225</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H212" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I212" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J212" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B213" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C213" s="56" t="n">
         <v>5</v>
@@ -53904,24 +53907,24 @@
         <v>225</v>
       </c>
       <c r="G213" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H213" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I213" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J213" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B214" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C214" s="56" t="n">
         <v>5</v>
@@ -53936,16 +53939,16 @@
         <v>225</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H214" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I214" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J214" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53953,7 +53956,7 @@
         <v>245</v>
       </c>
       <c r="B215" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C215" s="56" t="n">
         <v>5</v>
@@ -53968,16 +53971,16 @@
         <v>192</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H215" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I215" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J215" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53985,7 +53988,7 @@
         <v>245</v>
       </c>
       <c r="B216" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C216" s="56" t="n">
         <v>5</v>
@@ -54000,16 +54003,16 @@
         <v>192</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H216" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I216" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J216" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54017,7 +54020,7 @@
         <v>245</v>
       </c>
       <c r="B217" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C217" s="56" t="n">
         <v>5</v>
@@ -54032,24 +54035,24 @@
         <v>192</v>
       </c>
       <c r="G217" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H217" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I217" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J217" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B218" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C218" s="56" t="n">
         <v>5</v>
@@ -54064,24 +54067,24 @@
         <v>208</v>
       </c>
       <c r="G218" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H218" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I218" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J218" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B219" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C219" s="56" t="n">
         <v>5</v>
@@ -54096,24 +54099,24 @@
         <v>208</v>
       </c>
       <c r="G219" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H219" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I219" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J219" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B220" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C220" s="56" t="n">
         <v>5</v>
@@ -54128,24 +54131,24 @@
         <v>208</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H220" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I220" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J220" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B221" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C221" s="56" t="n">
         <v>5</v>
@@ -54160,24 +54163,24 @@
         <v>224</v>
       </c>
       <c r="G221" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H221" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I221" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J221" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B222" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C222" s="56" t="n">
         <v>5</v>
@@ -54192,24 +54195,24 @@
         <v>224</v>
       </c>
       <c r="G222" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H222" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I222" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J222" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B223" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C223" s="56" t="n">
         <v>5</v>
@@ -54224,16 +54227,16 @@
         <v>224</v>
       </c>
       <c r="G223" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H223" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I223" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J223" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54241,13 +54244,13 @@
         <v>245</v>
       </c>
       <c r="B224" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C224" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D224" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E224" s="47" t="n">
         <v>4164</v>
@@ -54256,16 +54259,16 @@
         <v>231</v>
       </c>
       <c r="G224" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H224" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I224" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J224" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54273,13 +54276,13 @@
         <v>245</v>
       </c>
       <c r="B225" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C225" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D225" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E225" s="47" t="n">
         <v>4164</v>
@@ -54288,16 +54291,16 @@
         <v>231</v>
       </c>
       <c r="G225" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H225" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I225" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J225" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54305,13 +54308,13 @@
         <v>245</v>
       </c>
       <c r="B226" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C226" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D226" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E226" s="47" t="n">
         <v>4164</v>
@@ -54320,16 +54323,16 @@
         <v>231</v>
       </c>
       <c r="G226" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H226" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I226" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J226" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54337,13 +54340,13 @@
         <v>245</v>
       </c>
       <c r="B227" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C227" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D227" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E227" s="47" t="n">
         <v>4164</v>
@@ -54352,16 +54355,16 @@
         <v>231</v>
       </c>
       <c r="G227" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H227" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I227" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J227" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54369,13 +54372,13 @@
         <v>245</v>
       </c>
       <c r="B228" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C228" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D228" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E228" s="47" t="n">
         <v>4164</v>
@@ -54384,16 +54387,16 @@
         <v>231</v>
       </c>
       <c r="G228" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H228" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I228" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J228" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54401,13 +54404,13 @@
         <v>245</v>
       </c>
       <c r="B229" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C229" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D229" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E229" s="47" t="n">
         <v>4164</v>
@@ -54416,30 +54419,30 @@
         <v>231</v>
       </c>
       <c r="G229" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H229" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I229" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J229" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B230" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C230" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D230" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E230" s="47" t="n">
         <v>4184</v>
@@ -54448,30 +54451,30 @@
         <v>234</v>
       </c>
       <c r="G230" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H230" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I230" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J230" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B231" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C231" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D231" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E231" s="47" t="n">
         <v>4184</v>
@@ -54480,30 +54483,30 @@
         <v>234</v>
       </c>
       <c r="G231" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H231" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I231" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J231" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B232" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C232" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D232" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E232" s="47" t="n">
         <v>4184</v>
@@ -54512,30 +54515,30 @@
         <v>234</v>
       </c>
       <c r="G232" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H232" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I232" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J232" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B233" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C233" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D233" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E233" s="47" t="n">
         <v>4184</v>
@@ -54544,30 +54547,30 @@
         <v>234</v>
       </c>
       <c r="G233" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H233" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I233" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J233" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B234" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C234" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D234" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E234" s="47" t="n">
         <v>4184</v>
@@ -54576,30 +54579,30 @@
         <v>234</v>
       </c>
       <c r="G234" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H234" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I234" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J234" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B235" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C235" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D235" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E235" s="47" t="n">
         <v>4184</v>
@@ -54608,30 +54611,30 @@
         <v>234</v>
       </c>
       <c r="G235" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H235" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I235" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J235" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B236" s="57" t="s">
         <v>255</v>
-      </c>
-      <c r="B236" s="57" t="s">
-        <v>256</v>
       </c>
       <c r="C236" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D236" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E236" s="47" t="n">
         <v>4204</v>
@@ -54640,30 +54643,30 @@
         <v>228</v>
       </c>
       <c r="G236" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H236" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I236" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J236" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B237" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C237" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D237" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E237" s="47" t="n">
         <v>4204</v>
@@ -54672,30 +54675,30 @@
         <v>228</v>
       </c>
       <c r="G237" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H237" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I237" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J237" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B238" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C238" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D238" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E238" s="47" t="n">
         <v>4204</v>
@@ -54704,30 +54707,30 @@
         <v>228</v>
       </c>
       <c r="G238" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H238" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I238" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J238" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B239" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C239" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D239" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E239" s="47" t="n">
         <v>4204</v>
@@ -54736,30 +54739,30 @@
         <v>228</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H239" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I239" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J239" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B240" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C240" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D240" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E240" s="47" t="n">
         <v>4204</v>
@@ -54768,24 +54771,24 @@
         <v>228</v>
       </c>
       <c r="G240" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H240" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I240" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J240" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B241" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C241" s="56" t="n">
         <v>7</v>
@@ -54800,16 +54803,16 @@
         <v>228</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H241" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I241" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J241" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54817,7 +54820,7 @@
         <v>245</v>
       </c>
       <c r="B242" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C242" s="56" t="n">
         <v>7</v>
@@ -54832,16 +54835,16 @@
         <v>230</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H242" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I242" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J242" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54849,7 +54852,7 @@
         <v>245</v>
       </c>
       <c r="B243" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C243" s="56" t="n">
         <v>7</v>
@@ -54864,16 +54867,16 @@
         <v>230</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H243" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I243" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J243" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54881,7 +54884,7 @@
         <v>245</v>
       </c>
       <c r="B244" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C244" s="56" t="n">
         <v>7</v>
@@ -54896,24 +54899,24 @@
         <v>230</v>
       </c>
       <c r="G244" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H244" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I244" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J244" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B245" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C245" s="56" t="n">
         <v>7</v>
@@ -54928,24 +54931,24 @@
         <v>233</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H245" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I245" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J245" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B246" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C246" s="56" t="n">
         <v>7</v>
@@ -54960,24 +54963,24 @@
         <v>233</v>
       </c>
       <c r="G246" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H246" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I246" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J246" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B247" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C247" s="56" t="n">
         <v>7</v>
@@ -54992,24 +54995,24 @@
         <v>233</v>
       </c>
       <c r="G247" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H247" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I247" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J247" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B248" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C248" s="56" t="n">
         <v>7</v>
@@ -55024,24 +55027,24 @@
         <v>227</v>
       </c>
       <c r="G248" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H248" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I248" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J248" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B249" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C249" s="56" t="n">
         <v>7</v>
@@ -55056,24 +55059,24 @@
         <v>227</v>
       </c>
       <c r="G249" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H249" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I249" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J249" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B250" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C250" s="56" t="n">
         <v>7</v>
@@ -55088,16 +55091,16 @@
         <v>227</v>
       </c>
       <c r="G250" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H250" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I250" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J250" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55105,13 +55108,13 @@
         <v>245</v>
       </c>
       <c r="B251" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C251" s="47" t="n">
         <v>10</v>
       </c>
       <c r="D251" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E251" s="47" t="n">
         <v>4216</v>
@@ -55120,16 +55123,16 @@
         <v>229</v>
       </c>
       <c r="G251" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H251" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I251" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J251" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55137,13 +55140,13 @@
         <v>245</v>
       </c>
       <c r="B252" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C252" s="47" t="n">
         <v>10</v>
       </c>
       <c r="D252" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E252" s="47" t="n">
         <v>4216</v>
@@ -55152,16 +55155,16 @@
         <v>229</v>
       </c>
       <c r="G252" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H252" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I252" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J252" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55169,13 +55172,13 @@
         <v>245</v>
       </c>
       <c r="B253" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C253" s="47" t="n">
         <v>10</v>
       </c>
       <c r="D253" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E253" s="47" t="n">
         <v>4216</v>
@@ -55184,30 +55187,30 @@
         <v>229</v>
       </c>
       <c r="G253" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H253" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I253" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J253" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B254" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C254" s="47" t="n">
         <v>10</v>
       </c>
       <c r="D254" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E254" s="47" t="n">
         <v>4217</v>
@@ -55216,30 +55219,30 @@
         <v>232</v>
       </c>
       <c r="G254" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H254" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I254" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J254" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C255" s="47" t="n">
         <v>10</v>
       </c>
       <c r="D255" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E255" s="47" t="n">
         <v>4217</v>
@@ -55248,30 +55251,30 @@
         <v>232</v>
       </c>
       <c r="G255" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H255" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I255" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J255" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B256" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C256" s="47" t="n">
         <v>10</v>
       </c>
       <c r="D256" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E256" s="47" t="n">
         <v>4217</v>
@@ -55280,30 +55283,30 @@
         <v>232</v>
       </c>
       <c r="G256" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H256" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I256" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J256" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B257" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C257" s="47" t="n">
         <v>10</v>
       </c>
       <c r="D257" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E257" s="47" t="n">
         <v>4218</v>
@@ -55312,30 +55315,30 @@
         <v>235</v>
       </c>
       <c r="G257" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H257" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I257" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J257" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B258" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C258" s="47" t="n">
         <v>10</v>
       </c>
       <c r="D258" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E258" s="47" t="n">
         <v>4218</v>
@@ -55344,30 +55347,30 @@
         <v>235</v>
       </c>
       <c r="G258" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H258" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I258" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J258" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B259" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C259" s="47" t="n">
         <v>10</v>
       </c>
       <c r="D259" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E259" s="47" t="n">
         <v>4218</v>
@@ -55376,19 +55379,20 @@
         <v>235</v>
       </c>
       <c r="G259" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H259" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I259" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J259" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J259"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.3"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -55396,6 +55400,7 @@
     <oddHeader/>
     <oddFooter>&amp;L&amp;1#&amp;10 Non-Confidential - Mars, Incorporated</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -55412,25 +55417,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>279</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -55458,20 +55463,20 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="47" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8137651821862"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="17.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="C1" s="61" t="s">
         <v>282</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -55498,10 +55503,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -55510,7 +55515,7 @@
         <v>246</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55518,103 +55523,103 @@
         <v>249</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="62" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="62" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="62" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="62" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -55641,18 +55646,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.6315789473684"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55662,22 +55667,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="58" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/MARSRU2_SAND/Data/2019/MARS KPIs.xlsx
+++ b/Projects/MARSRU2_SAND/Data/2019/MARS KPIs.xlsx
@@ -44,9 +44,13 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'4317'!$A$1:$C$54</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -313,7 +317,7 @@
   <si>
     <t xml:space="preserve">form_factor: POUCH, pouch, Pouch. brand_name: Whiskas. exclude sub_category: C&amp;T. exclude product_fk: 673,674,675,676
 form_factor: POUCH, pouch, Pouch. brand_name: Felix
-1.3</t>
+1.2</t>
   </si>
   <si>
     <t xml:space="preserve">Суммарный линейный размер влажных однопорционных кормов  Perfect Fit + Sheba  минимум на 40% больше любого другого суперпремиального бренда</t>
@@ -324,7 +328,7 @@
   <si>
     <t xml:space="preserve">form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: Perfect Fit, Sheba
 form_factor: POUCH, pouch, Pouch, CANS, can, Can. Brand_name: Gourmet
-1.3</t>
+1.4</t>
   </si>
   <si>
     <t xml:space="preserve">Большая дюжина - 12 SKU расположены в соответствии с планограммой (не ниже 3-й полки и не выше 7-й)</t>
@@ -529,28 +533,28 @@
     <t xml:space="preserve">Суммарный линейный размер влажных однопорционных кормов Kitekat pouch минимум на 50% больше любого бренда в эконом паучах</t>
   </si>
   <si>
-    <t xml:space="preserve">To return true if total linear length of WET POUCHES Kiteket &gt;= 150% * linear size of ANY brand from the list - {Friskies, TomCat, Lenta, Catty, Darsi}
+    <t xml:space="preserve">To return true if total linear length of WET POUCHES Kiteket &gt;= 150% * linear size of ANY brand from the list - {Friskies, TomCat, Lenta, Katty, Darsi}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">form_factor: POUCH, pouch, Pouch. brand_name: Kitekat
-form_factor: POUCH, pouch, Pouch. brand_name: Friskies
+    <t xml:space="preserve">form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: Kitekat
+form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: Friskies
 1.5
 OR
-form_factor: POUCH, pouch, Pouch. brand_name: Kitekat
-form_factor: POUCH, pouch, Pouch. brand_name: TomCat
+form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: Kitekat
+form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: TomCat
 1.5
 OR
-form_factor: POUCH, pouch, Pouch. brand_name: Kitekat
-form_factor: POUCH, pouch, Pouch. brand_name: Lenta
+form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: Kitekat
+form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: Lenta
 1.5
 OR
-form_factor: POUCH, pouch, Pouch. brand_name: Kitekat
-form_factor: POUCH, pouch, Pouch. brand_name: Catty
+form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: Kitekat
+form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: Katty
 1.5
 OR
-form_factor: POUCH, pouch, Pouch. brand_name: Kitekat
-form_factor: POUCH, pouch, Pouch. brand_name: Dars
+form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: Kitekat
+form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: Dars
 1.5</t>
   </si>
   <si>
@@ -1543,29 +1547,29 @@
   <dimension ref="1:53"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D36" activeCellId="0" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="O42" activeCellId="0" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="3" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="37.2793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="41.668016194332"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="96.6194331983806"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="28.9230769230769"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="98.336032388664"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="2" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="6" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="6" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="23" min="17" style="3" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="3" width="18.1012145748988"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="3" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="26" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -46398,8 +46402,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="47" width="9"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="30.2064777327935"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -47262,14 +47266,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="49" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="49" width="37.919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="26.0283400809717"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="47" width="25.8137651821862"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="47" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="49" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="47" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="47" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -55417,10 +55421,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -55463,8 +55467,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="47" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.8137651821862"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="17.995951417004"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -55503,10 +55507,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -55646,7 +55650,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.6315789473684"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.4898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MARSRU2_SAND/Data/2019/MARS KPIs.xlsx
+++ b/Projects/MARSRU2_SAND/Data/2019/MARS KPIs.xlsx
@@ -17,6 +17,7 @@
     <sheet name="сцены" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0" vbProcedure="false">KPI!$B$1:$Y$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_FilterDatabase_0_0" vbProcedure="false">KPI!$B$1:$Y$45</definedName>
@@ -42,9 +43,14 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPI!$A$1:$Y$53</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'4317'!$A$1:$C$54</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
-    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -56,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="292">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -311,7 +317,7 @@
   <si>
     <t xml:space="preserve">form_factor: POUCH, pouch, Pouch. brand_name: Whiskas. exclude sub_category: C&amp;T. exclude product_fk: 673,674,675,676
 form_factor: POUCH, pouch, Pouch. brand_name: Felix
-1.3</t>
+1.2</t>
   </si>
   <si>
     <t xml:space="preserve">Суммарный линейный размер влажных однопорционных кормов  Perfect Fit + Sheba  минимум на 40% больше любого другого суперпремиального бренда</t>
@@ -322,7 +328,7 @@
   <si>
     <t xml:space="preserve">form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: Perfect Fit, Sheba
 form_factor: POUCH, pouch, Pouch, CANS, can, Can. Brand_name: Gourmet
-1.3</t>
+1.4</t>
   </si>
   <si>
     <t xml:space="preserve">Большая дюжина - 12 SKU расположены в соответствии с планограммой (не ниже 3-й полки и не выше 7-й)</t>
@@ -527,28 +533,28 @@
     <t xml:space="preserve">Суммарный линейный размер влажных однопорционных кормов Kitekat pouch минимум на 50% больше любого бренда в эконом паучах</t>
   </si>
   <si>
-    <t xml:space="preserve">To return true if total linear length of WET POUCHES Kiteket &gt;= 150% * linear size of ANY brand from the list - {Friskies, TomCat, Lenta, Catty, Darsi}
+    <t xml:space="preserve">To return true if total linear length of WET POUCHES Kiteket &gt;= 150% * linear size of ANY brand from the list - {Friskies, TomCat, Lenta, Katty, Darsi}
 </t>
   </si>
   <si>
-    <t xml:space="preserve">form_factor: POUCH, pouch, Pouch. brand_name: Kitekat
-form_factor: POUCH, pouch, Pouch. brand_name: Friskies
+    <t xml:space="preserve">form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: Kitekat
+form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: Friskies
 1.5
 OR
-form_factor: POUCH, pouch, Pouch. brand_name: Kitekat
-form_factor: POUCH, pouch, Pouch. brand_name: TomCat
+form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: Kitekat
+form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: TomCat
 1.5
 OR
-form_factor: POUCH, pouch, Pouch. brand_name: Kitekat
-form_factor: POUCH, pouch, Pouch. brand_name: Lenta
+form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: Kitekat
+form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: Lenta
 1.5
 OR
-form_factor: POUCH, pouch, Pouch. brand_name: Kitekat
-form_factor: POUCH, pouch, Pouch. brand_name: Catty
+form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: Kitekat
+form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: Katty
 1.5
 OR
-form_factor: POUCH, pouch, Pouch. brand_name: Kitekat
-form_factor: POUCH, pouch, Pouch. brand_name: Dars
+form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: Kitekat
+form_factor: POUCH, pouch, Pouch, CANS, can, Can. brand_name: Dars
 1.5</t>
   </si>
   <si>
@@ -902,9 +908,6 @@
   </si>
   <si>
     <t xml:space="preserve">Grocery Магазин у дома (100-299)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;8 </t>
   </si>
   <si>
     <t xml:space="preserve">Grocery Магазин у дома (300-449)</t>
@@ -1532,6 +1535,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1540,29 +1547,29 @@
   <dimension ref="1:53"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G43" activeCellId="0" sqref="G43"/>
+      <selection pane="bottomLeft" activeCell="O42" activeCellId="0" sqref="O42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="8.03238866396761"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="3" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="36.9554655870445"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="41.3481781376518"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="95.7651821862348"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="3" width="37.8137651821862"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="4" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="98.336032388664"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="3" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="2" width="8.89068825910931"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="6" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="6" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="3" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="23" min="17" style="3" width="13.6032388663968"/>
-    <col collapsed="false" hidden="false" max="24" min="24" style="3" width="17.995951417004"/>
-    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="24" min="24" style="3" width="18.3157894736842"/>
+    <col collapsed="false" hidden="false" max="25" min="25" style="5" width="22.6032388663968"/>
     <col collapsed="false" hidden="false" max="1025" min="26" style="1" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -46395,8 +46402,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="47" width="9"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="48" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="49" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -47253,20 +47260,20 @@
   <dimension ref="1:259"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="64" zoomScaleNormal="64" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
+      <selection pane="topLeft" activeCell="G44" activeCellId="0" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="49" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="49" width="37.7044534412955"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="25.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="47" width="25.7085020242915"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="47" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.3522267206478"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="49" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="47" width="26.0283400809717"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="47" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.3198380566802"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -47429,8 +47436,8 @@
       <c r="F3" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>250</v>
+      <c r="G3" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>248</v>
@@ -47441,7 +47448,7 @@
         <v>245</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" s="47" t="n">
         <v>0</v>
@@ -47455,8 +47462,8 @@
       <c r="F4" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>250</v>
+      <c r="G4" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H4" s="0" t="s">
         <v>248</v>
@@ -47467,7 +47474,7 @@
         <v>245</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C5" s="47" t="n">
         <v>0</v>
@@ -47481,8 +47488,8 @@
       <c r="F5" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>250</v>
+      <c r="G5" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H5" s="0" t="s">
         <v>248</v>
@@ -47493,7 +47500,7 @@
         <v>245</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C6" s="47" t="n">
         <v>0</v>
@@ -47507,8 +47514,8 @@
       <c r="F6" s="57" t="s">
         <v>190</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>250</v>
+      <c r="G6" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H6" s="0" t="s">
         <v>248</v>
@@ -47516,7 +47523,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" s="57" t="s">
         <v>246</v>
@@ -47533,8 +47540,8 @@
       <c r="F7" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="G7" s="0" t="s">
-        <v>250</v>
+      <c r="G7" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H7" s="0" t="s">
         <v>248</v>
@@ -47542,7 +47549,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" s="57" t="s">
         <v>249</v>
@@ -47559,8 +47566,8 @@
       <c r="F8" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="G8" s="0" t="s">
-        <v>250</v>
+      <c r="G8" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H8" s="0" t="s">
         <v>248</v>
@@ -47568,10 +47575,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C9" s="47" t="n">
         <v>0</v>
@@ -47585,8 +47592,8 @@
       <c r="F9" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="G9" s="0" t="s">
-        <v>250</v>
+      <c r="G9" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H9" s="0" t="s">
         <v>248</v>
@@ -47594,10 +47601,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B10" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C10" s="47" t="n">
         <v>0</v>
@@ -47611,8 +47618,8 @@
       <c r="F10" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="G10" s="0" t="s">
-        <v>250</v>
+      <c r="G10" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H10" s="0" t="s">
         <v>248</v>
@@ -47620,10 +47627,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B11" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C11" s="47" t="n">
         <v>0</v>
@@ -47637,8 +47644,8 @@
       <c r="F11" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="G11" s="0" t="s">
-        <v>250</v>
+      <c r="G11" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H11" s="0" t="s">
         <v>248</v>
@@ -47646,7 +47653,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B12" s="57" t="s">
         <v>246</v>
@@ -47663,8 +47670,8 @@
       <c r="F12" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="G12" s="0" t="s">
-        <v>250</v>
+      <c r="G12" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H12" s="0" t="s">
         <v>248</v>
@@ -47672,7 +47679,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B13" s="57" t="s">
         <v>249</v>
@@ -47689,8 +47696,8 @@
       <c r="F13" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="G13" s="0" t="s">
-        <v>250</v>
+      <c r="G13" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H13" s="0" t="s">
         <v>248</v>
@@ -47698,10 +47705,10 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B14" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C14" s="47" t="n">
         <v>0</v>
@@ -47715,8 +47722,8 @@
       <c r="F14" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="G14" s="0" t="s">
-        <v>250</v>
+      <c r="G14" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H14" s="0" t="s">
         <v>248</v>
@@ -47724,10 +47731,10 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C15" s="47" t="n">
         <v>0</v>
@@ -47741,8 +47748,8 @@
       <c r="F15" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="G15" s="0" t="s">
-        <v>250</v>
+      <c r="G15" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H15" s="0" t="s">
         <v>248</v>
@@ -47750,10 +47757,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B16" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C16" s="47" t="n">
         <v>0</v>
@@ -47767,8 +47774,8 @@
       <c r="F16" s="57" t="s">
         <v>222</v>
       </c>
-      <c r="G16" s="0" t="s">
-        <v>250</v>
+      <c r="G16" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H16" s="0" t="s">
         <v>248</v>
@@ -47779,7 +47786,7 @@
         <v>245</v>
       </c>
       <c r="B17" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C17" s="47" t="n">
         <v>0</v>
@@ -47793,8 +47800,8 @@
       <c r="F17" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="G17" s="0" t="s">
-        <v>250</v>
+      <c r="G17" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H17" s="0" t="s">
         <v>248</v>
@@ -47805,7 +47812,7 @@
         <v>245</v>
       </c>
       <c r="B18" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C18" s="47" t="n">
         <v>0</v>
@@ -47819,8 +47826,8 @@
       <c r="F18" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="G18" s="0" t="s">
-        <v>250</v>
+      <c r="G18" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H18" s="0" t="s">
         <v>248</v>
@@ -47831,7 +47838,7 @@
         <v>245</v>
       </c>
       <c r="B19" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C19" s="47" t="n">
         <v>0</v>
@@ -47845,8 +47852,8 @@
       <c r="F19" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="G19" s="0" t="s">
-        <v>250</v>
+      <c r="G19" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H19" s="0" t="s">
         <v>248</v>
@@ -47857,7 +47864,7 @@
         <v>245</v>
       </c>
       <c r="B20" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C20" s="47" t="n">
         <v>0</v>
@@ -47871,8 +47878,8 @@
       <c r="F20" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="G20" s="0" t="s">
-        <v>250</v>
+      <c r="G20" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H20" s="0" t="s">
         <v>248</v>
@@ -47883,7 +47890,7 @@
         <v>245</v>
       </c>
       <c r="B21" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C21" s="47" t="n">
         <v>0</v>
@@ -47897,8 +47904,8 @@
       <c r="F21" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="G21" s="0" t="s">
-        <v>250</v>
+      <c r="G21" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H21" s="0" t="s">
         <v>248</v>
@@ -47909,7 +47916,7 @@
         <v>245</v>
       </c>
       <c r="B22" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C22" s="47" t="n">
         <v>0</v>
@@ -47923,8 +47930,8 @@
       <c r="F22" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="G22" s="0" t="s">
-        <v>250</v>
+      <c r="G22" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H22" s="0" t="s">
         <v>248</v>
@@ -47932,10 +47939,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B23" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C23" s="47" t="n">
         <v>0</v>
@@ -47949,8 +47956,8 @@
       <c r="F23" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="G23" s="0" t="s">
-        <v>250</v>
+      <c r="G23" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H23" s="0" t="s">
         <v>248</v>
@@ -47958,10 +47965,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B24" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C24" s="47" t="n">
         <v>0</v>
@@ -47975,8 +47982,8 @@
       <c r="F24" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="G24" s="0" t="s">
-        <v>250</v>
+      <c r="G24" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H24" s="0" t="s">
         <v>248</v>
@@ -47984,10 +47991,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B25" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C25" s="47" t="n">
         <v>0</v>
@@ -48001,8 +48008,8 @@
       <c r="F25" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="G25" s="0" t="s">
-        <v>250</v>
+      <c r="G25" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H25" s="0" t="s">
         <v>248</v>
@@ -48010,10 +48017,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B26" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C26" s="47" t="n">
         <v>0</v>
@@ -48027,8 +48034,8 @@
       <c r="F26" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="G26" s="0" t="s">
-        <v>250</v>
+      <c r="G26" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H26" s="0" t="s">
         <v>248</v>
@@ -48036,10 +48043,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B27" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C27" s="47" t="n">
         <v>0</v>
@@ -48053,8 +48060,8 @@
       <c r="F27" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="G27" s="0" t="s">
-        <v>250</v>
+      <c r="G27" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H27" s="0" t="s">
         <v>248</v>
@@ -48062,10 +48069,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B28" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C28" s="47" t="n">
         <v>0</v>
@@ -48079,8 +48086,8 @@
       <c r="F28" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="G28" s="0" t="s">
-        <v>250</v>
+      <c r="G28" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H28" s="0" t="s">
         <v>248</v>
@@ -48088,10 +48095,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B29" s="57" t="s">
         <v>255</v>
-      </c>
-      <c r="B29" s="57" t="s">
-        <v>256</v>
       </c>
       <c r="C29" s="47" t="n">
         <v>0</v>
@@ -48105,8 +48112,8 @@
       <c r="F29" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="G29" s="0" t="s">
-        <v>250</v>
+      <c r="G29" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H29" s="0" t="s">
         <v>248</v>
@@ -48114,10 +48121,10 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B30" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C30" s="47" t="n">
         <v>0</v>
@@ -48131,8 +48138,8 @@
       <c r="F30" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="G30" s="0" t="s">
-        <v>250</v>
+      <c r="G30" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H30" s="0" t="s">
         <v>248</v>
@@ -48140,10 +48147,10 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B31" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C31" s="47" t="n">
         <v>0</v>
@@ -48157,8 +48164,8 @@
       <c r="F31" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="G31" s="0" t="s">
-        <v>250</v>
+      <c r="G31" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H31" s="0" t="s">
         <v>248</v>
@@ -48166,10 +48173,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B32" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C32" s="47" t="n">
         <v>0</v>
@@ -48183,8 +48190,8 @@
       <c r="F32" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="G32" s="0" t="s">
-        <v>250</v>
+      <c r="G32" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H32" s="0" t="s">
         <v>248</v>
@@ -48192,10 +48199,10 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B33" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C33" s="47" t="n">
         <v>0</v>
@@ -48209,8 +48216,8 @@
       <c r="F33" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="G33" s="0" t="s">
-        <v>250</v>
+      <c r="G33" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H33" s="0" t="s">
         <v>248</v>
@@ -48218,10 +48225,10 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B34" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C34" s="47" t="n">
         <v>0</v>
@@ -48235,8 +48242,8 @@
       <c r="F34" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="G34" s="0" t="s">
-        <v>250</v>
+      <c r="G34" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H34" s="0" t="s">
         <v>248</v>
@@ -48247,7 +48254,7 @@
         <v>245</v>
       </c>
       <c r="B35" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C35" s="47" t="n">
         <v>0</v>
@@ -48261,8 +48268,8 @@
       <c r="F35" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="G35" s="0" t="s">
-        <v>250</v>
+      <c r="G35" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H35" s="0" t="s">
         <v>248</v>
@@ -48273,7 +48280,7 @@
         <v>245</v>
       </c>
       <c r="B36" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C36" s="47" t="n">
         <v>0</v>
@@ -48287,8 +48294,8 @@
       <c r="F36" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="G36" s="0" t="s">
-        <v>250</v>
+      <c r="G36" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H36" s="0" t="s">
         <v>248</v>
@@ -48299,7 +48306,7 @@
         <v>245</v>
       </c>
       <c r="B37" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C37" s="47" t="n">
         <v>0</v>
@@ -48313,8 +48320,8 @@
       <c r="F37" s="57" t="s">
         <v>189</v>
       </c>
-      <c r="G37" s="0" t="s">
-        <v>250</v>
+      <c r="G37" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H37" s="0" t="s">
         <v>248</v>
@@ -48322,10 +48329,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B38" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C38" s="47" t="n">
         <v>0</v>
@@ -48339,8 +48346,8 @@
       <c r="F38" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="G38" s="0" t="s">
-        <v>250</v>
+      <c r="G38" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H38" s="0" t="s">
         <v>248</v>
@@ -48348,10 +48355,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B39" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C39" s="47" t="n">
         <v>0</v>
@@ -48365,8 +48372,8 @@
       <c r="F39" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="G39" s="0" t="s">
-        <v>250</v>
+      <c r="G39" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H39" s="0" t="s">
         <v>248</v>
@@ -48374,10 +48381,10 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B40" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C40" s="47" t="n">
         <v>0</v>
@@ -48391,8 +48398,8 @@
       <c r="F40" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="G40" s="0" t="s">
-        <v>250</v>
+      <c r="G40" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H40" s="0" t="s">
         <v>248</v>
@@ -48400,10 +48407,10 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B41" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C41" s="47" t="n">
         <v>0</v>
@@ -48417,8 +48424,8 @@
       <c r="F41" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="G41" s="0" t="s">
-        <v>250</v>
+      <c r="G41" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H41" s="0" t="s">
         <v>248</v>
@@ -48426,10 +48433,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B42" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C42" s="47" t="n">
         <v>0</v>
@@ -48443,8 +48450,8 @@
       <c r="F42" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="G42" s="0" t="s">
-        <v>250</v>
+      <c r="G42" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H42" s="0" t="s">
         <v>248</v>
@@ -48452,10 +48459,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B43" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C43" s="47" t="n">
         <v>0</v>
@@ -48469,8 +48476,8 @@
       <c r="F43" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="G43" s="0" t="s">
-        <v>250</v>
+      <c r="G43" s="58" t="s">
+        <v>247</v>
       </c>
       <c r="H43" s="0" t="s">
         <v>248</v>
@@ -48496,16 +48503,16 @@
         <v>179</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H44" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I44" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J44" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J44" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48528,16 +48535,16 @@
         <v>179</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H45" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I45" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J45" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J45" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48545,7 +48552,7 @@
         <v>245</v>
       </c>
       <c r="B46" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C46" s="47" t="n">
         <v>1.6</v>
@@ -48560,16 +48567,16 @@
         <v>179</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H46" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I46" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J46" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J46" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48577,7 +48584,7 @@
         <v>245</v>
       </c>
       <c r="B47" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C47" s="47" t="n">
         <v>1.6</v>
@@ -48592,16 +48599,16 @@
         <v>179</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H47" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I47" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J47" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J47" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48609,7 +48616,7 @@
         <v>245</v>
       </c>
       <c r="B48" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C48" s="47" t="n">
         <v>1.6</v>
@@ -48624,21 +48631,21 @@
         <v>179</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H48" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I48" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J48" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J48" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B49" s="57" t="s">
         <v>246</v>
@@ -48656,21 +48663,21 @@
         <v>195</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H49" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I49" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J49" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J49" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B50" s="57" t="s">
         <v>249</v>
@@ -48688,24 +48695,24 @@
         <v>195</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H50" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I50" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J50" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J50" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B51" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C51" s="47" t="n">
         <v>1.6</v>
@@ -48720,24 +48727,24 @@
         <v>195</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H51" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I51" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J51" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J51" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B52" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C52" s="47" t="n">
         <v>1.6</v>
@@ -48752,24 +48759,24 @@
         <v>195</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H52" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I52" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J52" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J52" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B53" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C53" s="47" t="n">
         <v>1.6</v>
@@ -48784,21 +48791,21 @@
         <v>195</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H53" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I53" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J53" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J53" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B54" s="57" t="s">
         <v>246</v>
@@ -48816,21 +48823,21 @@
         <v>211</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H54" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I54" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J54" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J54" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B55" s="57" t="s">
         <v>249</v>
@@ -48848,24 +48855,24 @@
         <v>211</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H55" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I55" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J55" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J55" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B56" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C56" s="47" t="n">
         <v>1.6</v>
@@ -48880,24 +48887,24 @@
         <v>211</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I56" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J56" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J56" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B57" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C57" s="47" t="n">
         <v>1.6</v>
@@ -48912,24 +48919,24 @@
         <v>211</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I57" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J57" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B58" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C58" s="47" t="n">
         <v>1.6</v>
@@ -48944,16 +48951,16 @@
         <v>211</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H58" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I58" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J58" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J58" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48961,7 +48968,7 @@
         <v>245</v>
       </c>
       <c r="B59" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C59" s="47" t="n">
         <v>1.6</v>
@@ -48976,16 +48983,16 @@
         <v>180</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H59" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I59" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J59" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J59" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -48993,7 +49000,7 @@
         <v>245</v>
       </c>
       <c r="B60" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C60" s="47" t="n">
         <v>1.6</v>
@@ -49008,16 +49015,16 @@
         <v>180</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I60" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J60" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J60" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49025,7 +49032,7 @@
         <v>245</v>
       </c>
       <c r="B61" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C61" s="47" t="n">
         <v>1.6</v>
@@ -49040,16 +49047,16 @@
         <v>180</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I61" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J61" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J61" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49057,7 +49064,7 @@
         <v>245</v>
       </c>
       <c r="B62" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C62" s="47" t="n">
         <v>1.6</v>
@@ -49072,16 +49079,16 @@
         <v>180</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H62" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I62" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J62" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J62" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49089,7 +49096,7 @@
         <v>245</v>
       </c>
       <c r="B63" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C63" s="47" t="n">
         <v>1.6</v>
@@ -49104,16 +49111,16 @@
         <v>180</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H63" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I63" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J63" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J63" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49121,7 +49128,7 @@
         <v>245</v>
       </c>
       <c r="B64" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C64" s="47" t="n">
         <v>1.6</v>
@@ -49136,24 +49143,24 @@
         <v>180</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H64" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I64" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J64" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J64" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B65" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C65" s="47" t="n">
         <v>1.6</v>
@@ -49168,24 +49175,24 @@
         <v>196</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H65" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I65" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J65" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J65" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B66" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C66" s="47" t="n">
         <v>1.6</v>
@@ -49200,24 +49207,24 @@
         <v>196</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H66" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I66" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J66" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J66" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B67" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C67" s="47" t="n">
         <v>1.6</v>
@@ -49232,24 +49239,24 @@
         <v>196</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H67" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I67" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J67" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J67" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B68" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C68" s="47" t="n">
         <v>1.6</v>
@@ -49264,24 +49271,24 @@
         <v>196</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H68" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I68" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J68" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J68" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B69" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C69" s="47" t="n">
         <v>1.6</v>
@@ -49296,24 +49303,24 @@
         <v>196</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H69" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I69" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J69" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J69" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B70" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C70" s="47" t="n">
         <v>1.6</v>
@@ -49328,24 +49335,24 @@
         <v>196</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H70" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I70" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J70" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J70" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B71" s="57" t="s">
         <v>255</v>
-      </c>
-      <c r="B71" s="57" t="s">
-        <v>256</v>
       </c>
       <c r="C71" s="47" t="n">
         <v>1.6</v>
@@ -49360,24 +49367,24 @@
         <v>212</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H71" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I71" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J71" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J71" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B72" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C72" s="47" t="n">
         <v>1.6</v>
@@ -49392,24 +49399,24 @@
         <v>212</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H72" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I72" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J72" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J72" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B73" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C73" s="47" t="n">
         <v>1.6</v>
@@ -49424,24 +49431,24 @@
         <v>212</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H73" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I73" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J73" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J73" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B74" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C74" s="47" t="n">
         <v>1.6</v>
@@ -49456,24 +49463,24 @@
         <v>212</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H74" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I74" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J74" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J74" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B75" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C75" s="47" t="n">
         <v>1.6</v>
@@ -49488,24 +49495,24 @@
         <v>212</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H75" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I75" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J75" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J75" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B76" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C76" s="47" t="n">
         <v>1.6</v>
@@ -49520,16 +49527,16 @@
         <v>212</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H76" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I76" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J76" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J76" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49537,7 +49544,7 @@
         <v>245</v>
       </c>
       <c r="B77" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C77" s="47" t="n">
         <v>1.6</v>
@@ -49552,16 +49559,16 @@
         <v>178</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I77" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J77" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J77" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49569,7 +49576,7 @@
         <v>245</v>
       </c>
       <c r="B78" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C78" s="47" t="n">
         <v>1.6</v>
@@ -49584,16 +49591,16 @@
         <v>178</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H78" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I78" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J78" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J78" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49601,7 +49608,7 @@
         <v>245</v>
       </c>
       <c r="B79" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C79" s="47" t="n">
         <v>1.6</v>
@@ -49616,24 +49623,24 @@
         <v>178</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H79" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I79" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J79" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J79" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B80" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C80" s="47" t="n">
         <v>1.6</v>
@@ -49648,24 +49655,24 @@
         <v>194</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H80" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I80" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J80" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J80" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B81" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C81" s="47" t="n">
         <v>1.6</v>
@@ -49680,24 +49687,24 @@
         <v>194</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H81" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I81" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J81" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J81" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B82" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C82" s="47" t="n">
         <v>1.6</v>
@@ -49712,24 +49719,24 @@
         <v>194</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H82" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I82" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J82" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J82" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B83" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C83" s="47" t="n">
         <v>1.6</v>
@@ -49744,24 +49751,24 @@
         <v>210</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H83" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I83" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J83" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J83" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B84" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C84" s="47" t="n">
         <v>1.6</v>
@@ -49776,24 +49783,24 @@
         <v>210</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H84" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I84" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J84" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J84" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B85" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C85" s="47" t="n">
         <v>1.6</v>
@@ -49808,16 +49815,16 @@
         <v>210</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H85" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I85" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="J85" s="0" t="s">
         <v>266</v>
-      </c>
-      <c r="J85" s="0" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49840,16 +49847,16 @@
         <v>182</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H86" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I86" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49872,16 +49879,16 @@
         <v>182</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H87" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49889,7 +49896,7 @@
         <v>245</v>
       </c>
       <c r="B88" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C88" s="56" t="n">
         <v>2.3</v>
@@ -49904,16 +49911,16 @@
         <v>182</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H88" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49921,7 +49928,7 @@
         <v>245</v>
       </c>
       <c r="B89" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C89" s="56" t="n">
         <v>2.3</v>
@@ -49936,16 +49943,16 @@
         <v>182</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H89" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I89" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -49953,7 +49960,7 @@
         <v>245</v>
       </c>
       <c r="B90" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C90" s="56" t="n">
         <v>2.3</v>
@@ -49968,21 +49975,21 @@
         <v>182</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H90" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I90" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B91" s="57" t="s">
         <v>246</v>
@@ -50000,21 +50007,21 @@
         <v>198</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H91" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I91" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B92" s="57" t="s">
         <v>249</v>
@@ -50032,24 +50039,24 @@
         <v>198</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H92" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I92" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B93" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C93" s="56" t="n">
         <v>2.3</v>
@@ -50064,24 +50071,24 @@
         <v>198</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H93" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I93" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B94" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C94" s="56" t="n">
         <v>2.3</v>
@@ -50096,24 +50103,24 @@
         <v>198</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H94" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B95" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C95" s="56" t="n">
         <v>2.3</v>
@@ -50128,21 +50135,21 @@
         <v>198</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H95" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I95" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B96" s="57" t="s">
         <v>246</v>
@@ -50160,21 +50167,21 @@
         <v>214</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H96" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B97" s="57" t="s">
         <v>249</v>
@@ -50192,24 +50199,24 @@
         <v>214</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H97" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B98" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C98" s="56" t="n">
         <v>2.3</v>
@@ -50224,24 +50231,24 @@
         <v>214</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H98" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I98" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B99" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C99" s="56" t="n">
         <v>2.3</v>
@@ -50256,24 +50263,24 @@
         <v>214</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H99" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B100" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C100" s="56" t="n">
         <v>2.3</v>
@@ -50288,16 +50295,16 @@
         <v>214</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H100" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I100" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50305,7 +50312,7 @@
         <v>245</v>
       </c>
       <c r="B101" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C101" s="56" t="n">
         <v>2.3</v>
@@ -50320,16 +50327,16 @@
         <v>183</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H101" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50337,7 +50344,7 @@
         <v>245</v>
       </c>
       <c r="B102" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C102" s="56" t="n">
         <v>2.3</v>
@@ -50352,16 +50359,16 @@
         <v>183</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H102" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50369,7 +50376,7 @@
         <v>245</v>
       </c>
       <c r="B103" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C103" s="56" t="n">
         <v>2.3</v>
@@ -50384,16 +50391,16 @@
         <v>183</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H103" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I103" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50401,7 +50408,7 @@
         <v>245</v>
       </c>
       <c r="B104" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C104" s="56" t="n">
         <v>2.3</v>
@@ -50416,16 +50423,16 @@
         <v>183</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H104" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50433,7 +50440,7 @@
         <v>245</v>
       </c>
       <c r="B105" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C105" s="56" t="n">
         <v>2.3</v>
@@ -50448,16 +50455,16 @@
         <v>183</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H105" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I105" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50465,7 +50472,7 @@
         <v>245</v>
       </c>
       <c r="B106" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C106" s="56" t="n">
         <v>2.3</v>
@@ -50480,24 +50487,24 @@
         <v>183</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H106" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B107" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C107" s="56" t="n">
         <v>2.3</v>
@@ -50512,24 +50519,24 @@
         <v>199</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H107" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I107" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B108" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C108" s="56" t="n">
         <v>2.3</v>
@@ -50544,24 +50551,24 @@
         <v>199</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H108" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I108" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B109" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C109" s="56" t="n">
         <v>2.3</v>
@@ -50576,24 +50583,24 @@
         <v>199</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H109" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B110" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C110" s="56" t="n">
         <v>2.3</v>
@@ -50608,24 +50615,24 @@
         <v>199</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H110" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I110" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B111" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C111" s="56" t="n">
         <v>2.3</v>
@@ -50640,24 +50647,24 @@
         <v>199</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H111" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I111" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B112" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C112" s="56" t="n">
         <v>2.3</v>
@@ -50672,24 +50679,24 @@
         <v>199</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H112" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I112" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B113" s="57" t="s">
         <v>255</v>
-      </c>
-      <c r="B113" s="57" t="s">
-        <v>256</v>
       </c>
       <c r="C113" s="56" t="n">
         <v>2.3</v>
@@ -50704,24 +50711,24 @@
         <v>215</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H113" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I113" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B114" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C114" s="56" t="n">
         <v>2.3</v>
@@ -50736,24 +50743,24 @@
         <v>215</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H114" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I114" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B115" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C115" s="56" t="n">
         <v>2.3</v>
@@ -50768,24 +50775,24 @@
         <v>215</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H115" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B116" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C116" s="56" t="n">
         <v>2.3</v>
@@ -50800,24 +50807,24 @@
         <v>215</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H116" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I116" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B117" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C117" s="56" t="n">
         <v>2.3</v>
@@ -50832,24 +50839,24 @@
         <v>215</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H117" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I117" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B118" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C118" s="56" t="n">
         <v>2.3</v>
@@ -50864,16 +50871,16 @@
         <v>215</v>
       </c>
       <c r="G118" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H118" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I118" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J118" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50881,7 +50888,7 @@
         <v>245</v>
       </c>
       <c r="B119" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C119" s="56" t="n">
         <v>2.3</v>
@@ -50896,16 +50903,16 @@
         <v>181</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H119" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I119" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J119" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50913,7 +50920,7 @@
         <v>245</v>
       </c>
       <c r="B120" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C120" s="56" t="n">
         <v>2.3</v>
@@ -50928,16 +50935,16 @@
         <v>181</v>
       </c>
       <c r="G120" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H120" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I120" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J120" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -50945,7 +50952,7 @@
         <v>245</v>
       </c>
       <c r="B121" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C121" s="56" t="n">
         <v>2.3</v>
@@ -50960,24 +50967,24 @@
         <v>181</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H121" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I121" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J121" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B122" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C122" s="56" t="n">
         <v>2.3</v>
@@ -50992,24 +50999,24 @@
         <v>197</v>
       </c>
       <c r="G122" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H122" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I122" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J122" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B123" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C123" s="56" t="n">
         <v>2.3</v>
@@ -51024,24 +51031,24 @@
         <v>197</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H123" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I123" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J123" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B124" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C124" s="56" t="n">
         <v>2.3</v>
@@ -51056,24 +51063,24 @@
         <v>197</v>
       </c>
       <c r="G124" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H124" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I124" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J124" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B125" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C125" s="56" t="n">
         <v>2.3</v>
@@ -51088,24 +51095,24 @@
         <v>213</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H125" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I125" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J125" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B126" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C126" s="56" t="n">
         <v>2.3</v>
@@ -51120,24 +51127,24 @@
         <v>213</v>
       </c>
       <c r="G126" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H126" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I126" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J126" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B127" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C127" s="56" t="n">
         <v>2.3</v>
@@ -51152,16 +51159,16 @@
         <v>213</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H127" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I127" s="0" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J127" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51175,7 +51182,7 @@
         <v>2.8</v>
       </c>
       <c r="D128" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E128" s="47" t="n">
         <v>4156</v>
@@ -51184,16 +51191,16 @@
         <v>185</v>
       </c>
       <c r="G128" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H128" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I128" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J128" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51207,7 +51214,7 @@
         <v>2.8</v>
       </c>
       <c r="D129" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E129" s="47" t="n">
         <v>4156</v>
@@ -51216,16 +51223,16 @@
         <v>185</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H129" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I129" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J129" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51233,13 +51240,13 @@
         <v>245</v>
       </c>
       <c r="B130" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C130" s="56" t="n">
         <v>2.8</v>
       </c>
       <c r="D130" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E130" s="47" t="n">
         <v>4156</v>
@@ -51248,16 +51255,16 @@
         <v>185</v>
       </c>
       <c r="G130" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H130" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I130" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J130" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51265,13 +51272,13 @@
         <v>245</v>
       </c>
       <c r="B131" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C131" s="56" t="n">
         <v>2.8</v>
       </c>
       <c r="D131" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E131" s="47" t="n">
         <v>4156</v>
@@ -51280,16 +51287,16 @@
         <v>185</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H131" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I131" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J131" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51297,13 +51304,13 @@
         <v>245</v>
       </c>
       <c r="B132" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C132" s="56" t="n">
         <v>2.8</v>
       </c>
       <c r="D132" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E132" s="47" t="n">
         <v>4156</v>
@@ -51312,21 +51319,21 @@
         <v>185</v>
       </c>
       <c r="G132" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H132" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I132" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J132" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B133" s="57" t="s">
         <v>246</v>
@@ -51335,7 +51342,7 @@
         <v>2.8</v>
       </c>
       <c r="D133" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E133" s="47" t="n">
         <v>4176</v>
@@ -51344,21 +51351,21 @@
         <v>201</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H133" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I133" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J133" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B134" s="57" t="s">
         <v>249</v>
@@ -51367,7 +51374,7 @@
         <v>2.8</v>
       </c>
       <c r="D134" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E134" s="47" t="n">
         <v>4176</v>
@@ -51376,30 +51383,30 @@
         <v>201</v>
       </c>
       <c r="G134" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H134" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I134" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J134" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B135" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C135" s="56" t="n">
         <v>2.8</v>
       </c>
       <c r="D135" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E135" s="47" t="n">
         <v>4176</v>
@@ -51408,30 +51415,30 @@
         <v>201</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H135" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I135" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J135" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B136" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C136" s="56" t="n">
         <v>2.8</v>
       </c>
       <c r="D136" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E136" s="47" t="n">
         <v>4176</v>
@@ -51440,30 +51447,30 @@
         <v>201</v>
       </c>
       <c r="G136" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H136" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I136" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J136" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B137" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C137" s="56" t="n">
         <v>2.8</v>
       </c>
       <c r="D137" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E137" s="47" t="n">
         <v>4176</v>
@@ -51472,21 +51479,21 @@
         <v>201</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H137" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I137" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J137" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B138" s="57" t="s">
         <v>246</v>
@@ -51495,7 +51502,7 @@
         <v>2.8</v>
       </c>
       <c r="D138" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E138" s="47" t="n">
         <v>4196</v>
@@ -51504,21 +51511,21 @@
         <v>217</v>
       </c>
       <c r="G138" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H138" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I138" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J138" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B139" s="57" t="s">
         <v>249</v>
@@ -51527,7 +51534,7 @@
         <v>2.8</v>
       </c>
       <c r="D139" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E139" s="47" t="n">
         <v>4196</v>
@@ -51536,30 +51543,30 @@
         <v>217</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H139" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I139" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J139" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B140" s="57" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C140" s="56" t="n">
         <v>2.8</v>
       </c>
       <c r="D140" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E140" s="47" t="n">
         <v>4196</v>
@@ -51568,30 +51575,30 @@
         <v>217</v>
       </c>
       <c r="G140" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H140" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I140" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J140" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B141" s="57" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C141" s="56" t="n">
         <v>2.8</v>
       </c>
       <c r="D141" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E141" s="47" t="n">
         <v>4196</v>
@@ -51600,30 +51607,30 @@
         <v>217</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H141" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I141" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J141" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B142" s="57" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C142" s="56" t="n">
         <v>2.8</v>
       </c>
       <c r="D142" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E142" s="47" t="n">
         <v>4196</v>
@@ -51632,16 +51639,16 @@
         <v>217</v>
       </c>
       <c r="G142" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H142" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I142" s="0" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J142" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51649,7 +51656,7 @@
         <v>245</v>
       </c>
       <c r="B143" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C143" s="56" t="n">
         <v>2.8</v>
@@ -51664,16 +51671,16 @@
         <v>186</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H143" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I143" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J143" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51681,7 +51688,7 @@
         <v>245</v>
       </c>
       <c r="B144" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C144" s="56" t="n">
         <v>2.8</v>
@@ -51696,16 +51703,16 @@
         <v>186</v>
       </c>
       <c r="G144" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H144" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I144" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J144" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51713,7 +51720,7 @@
         <v>245</v>
       </c>
       <c r="B145" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C145" s="56" t="n">
         <v>2.8</v>
@@ -51728,16 +51735,16 @@
         <v>186</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H145" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I145" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J145" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51745,7 +51752,7 @@
         <v>245</v>
       </c>
       <c r="B146" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C146" s="56" t="n">
         <v>2.8</v>
@@ -51760,16 +51767,16 @@
         <v>186</v>
       </c>
       <c r="G146" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H146" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I146" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J146" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51777,7 +51784,7 @@
         <v>245</v>
       </c>
       <c r="B147" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C147" s="56" t="n">
         <v>2.8</v>
@@ -51792,16 +51799,16 @@
         <v>186</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H147" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I147" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J147" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -51809,7 +51816,7 @@
         <v>245</v>
       </c>
       <c r="B148" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C148" s="56" t="n">
         <v>2.8</v>
@@ -51824,24 +51831,24 @@
         <v>186</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H148" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I148" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J148" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B149" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C149" s="56" t="n">
         <v>2.8</v>
@@ -51856,24 +51863,24 @@
         <v>202</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H149" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I149" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J149" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B150" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C150" s="56" t="n">
         <v>2.8</v>
@@ -51888,24 +51895,24 @@
         <v>202</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H150" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I150" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J150" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B151" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C151" s="56" t="n">
         <v>2.8</v>
@@ -51920,24 +51927,24 @@
         <v>202</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H151" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I151" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J151" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B152" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C152" s="56" t="n">
         <v>2.8</v>
@@ -51952,24 +51959,24 @@
         <v>202</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H152" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I152" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J152" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B153" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C153" s="56" t="n">
         <v>2.8</v>
@@ -51984,24 +51991,24 @@
         <v>202</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H153" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I153" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J153" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B154" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C154" s="56" t="n">
         <v>2.8</v>
@@ -52016,24 +52023,24 @@
         <v>202</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H154" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I154" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J154" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B155" s="57" t="s">
         <v>255</v>
-      </c>
-      <c r="B155" s="57" t="s">
-        <v>256</v>
       </c>
       <c r="C155" s="56" t="n">
         <v>2.8</v>
@@ -52048,24 +52055,24 @@
         <v>218</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H155" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I155" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J155" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B156" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C156" s="56" t="n">
         <v>2.8</v>
@@ -52080,24 +52087,24 @@
         <v>218</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H156" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I156" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J156" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B157" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C157" s="56" t="n">
         <v>2.8</v>
@@ -52112,24 +52119,24 @@
         <v>218</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H157" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I157" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J157" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B158" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C158" s="56" t="n">
         <v>2.8</v>
@@ -52144,24 +52151,24 @@
         <v>218</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H158" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I158" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J158" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B159" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C159" s="56" t="n">
         <v>2.8</v>
@@ -52176,24 +52183,24 @@
         <v>218</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H159" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I159" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J159" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B160" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C160" s="56" t="n">
         <v>2.8</v>
@@ -52208,16 +52215,16 @@
         <v>218</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H160" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I160" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J160" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52225,7 +52232,7 @@
         <v>245</v>
       </c>
       <c r="B161" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C161" s="56" t="n">
         <v>2.8</v>
@@ -52240,16 +52247,16 @@
         <v>184</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H161" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I161" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J161" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52257,7 +52264,7 @@
         <v>245</v>
       </c>
       <c r="B162" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C162" s="56" t="n">
         <v>2.8</v>
@@ -52272,16 +52279,16 @@
         <v>184</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H162" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I162" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J162" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52289,7 +52296,7 @@
         <v>245</v>
       </c>
       <c r="B163" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C163" s="56" t="n">
         <v>2.8</v>
@@ -52304,24 +52311,24 @@
         <v>184</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H163" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I163" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J163" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B164" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C164" s="56" t="n">
         <v>2.8</v>
@@ -52336,24 +52343,24 @@
         <v>200</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H164" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I164" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J164" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B165" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C165" s="56" t="n">
         <v>2.8</v>
@@ -52368,24 +52375,24 @@
         <v>200</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H165" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I165" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J165" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B166" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C166" s="56" t="n">
         <v>2.8</v>
@@ -52400,24 +52407,24 @@
         <v>200</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H166" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I166" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J166" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B167" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C167" s="56" t="n">
         <v>2.8</v>
@@ -52432,24 +52439,24 @@
         <v>216</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H167" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I167" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J167" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B168" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C168" s="56" t="n">
         <v>2.8</v>
@@ -52464,24 +52471,24 @@
         <v>216</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H168" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I168" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J168" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B169" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C169" s="56" t="n">
         <v>2.8</v>
@@ -52496,16 +52503,16 @@
         <v>216</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H169" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I169" s="0" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J169" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52513,7 +52520,7 @@
         <v>245</v>
       </c>
       <c r="B170" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C170" s="56" t="n">
         <v>3.8</v>
@@ -52528,16 +52535,16 @@
         <v>188</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H170" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I170" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J170" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52545,7 +52552,7 @@
         <v>245</v>
       </c>
       <c r="B171" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C171" s="56" t="n">
         <v>3.8</v>
@@ -52560,16 +52567,16 @@
         <v>188</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H171" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I171" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J171" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52577,7 +52584,7 @@
         <v>245</v>
       </c>
       <c r="B172" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C172" s="56" t="n">
         <v>3.8</v>
@@ -52592,16 +52599,16 @@
         <v>188</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H172" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I172" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J172" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52609,7 +52616,7 @@
         <v>245</v>
       </c>
       <c r="B173" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C173" s="56" t="n">
         <v>3.8</v>
@@ -52624,16 +52631,16 @@
         <v>188</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H173" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I173" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J173" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -52641,7 +52648,7 @@
         <v>245</v>
       </c>
       <c r="B174" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C174" s="56" t="n">
         <v>3.8</v>
@@ -52656,24 +52663,24 @@
         <v>188</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H174" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I174" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J174" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B175" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C175" s="56" t="n">
         <v>3.8</v>
@@ -52688,24 +52695,24 @@
         <v>204</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H175" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I175" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J175" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B176" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C176" s="56" t="n">
         <v>3.8</v>
@@ -52720,24 +52727,24 @@
         <v>204</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H176" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I176" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J176" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B177" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C177" s="56" t="n">
         <v>3.8</v>
@@ -52752,24 +52759,24 @@
         <v>204</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H177" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I177" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J177" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B178" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C178" s="56" t="n">
         <v>3.8</v>
@@ -52784,24 +52791,24 @@
         <v>204</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H178" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I178" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J178" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B179" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C179" s="56" t="n">
         <v>3.8</v>
@@ -52816,24 +52823,24 @@
         <v>204</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H179" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I179" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J179" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B180" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C180" s="56" t="n">
         <v>3.8</v>
@@ -52848,24 +52855,24 @@
         <v>204</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H180" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I180" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J180" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B181" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C181" s="56" t="n">
         <v>3.8</v>
@@ -52880,24 +52887,24 @@
         <v>204</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H181" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I181" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J181" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B182" s="57" t="s">
         <v>255</v>
-      </c>
-      <c r="B182" s="57" t="s">
-        <v>256</v>
       </c>
       <c r="C182" s="56" t="n">
         <v>3.8</v>
@@ -52912,24 +52919,24 @@
         <v>220</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H182" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I182" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J182" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B183" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C183" s="56" t="n">
         <v>3.8</v>
@@ -52944,24 +52951,24 @@
         <v>220</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H183" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I183" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J183" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B184" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C184" s="56" t="n">
         <v>3.8</v>
@@ -52976,24 +52983,24 @@
         <v>220</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H184" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I184" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J184" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B185" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C185" s="56" t="n">
         <v>3.8</v>
@@ -53008,24 +53015,24 @@
         <v>220</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H185" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I185" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J185" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B186" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C186" s="56" t="n">
         <v>3.8</v>
@@ -53040,24 +53047,24 @@
         <v>220</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H186" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I186" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J186" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B187" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C187" s="56" t="n">
         <v>3.8</v>
@@ -53072,16 +53079,16 @@
         <v>220</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H187" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I187" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J187" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53089,7 +53096,7 @@
         <v>245</v>
       </c>
       <c r="B188" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C188" s="56" t="n">
         <v>3.8</v>
@@ -53104,16 +53111,16 @@
         <v>187</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H188" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I188" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J188" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53121,7 +53128,7 @@
         <v>245</v>
       </c>
       <c r="B189" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C189" s="56" t="n">
         <v>3.8</v>
@@ -53136,16 +53143,16 @@
         <v>187</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H189" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I189" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J189" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53153,7 +53160,7 @@
         <v>245</v>
       </c>
       <c r="B190" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C190" s="56" t="n">
         <v>3.8</v>
@@ -53168,24 +53175,24 @@
         <v>187</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H190" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I190" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J190" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B191" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C191" s="56" t="n">
         <v>3.8</v>
@@ -53200,24 +53207,24 @@
         <v>203</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H191" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I191" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J191" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B192" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C192" s="56" t="n">
         <v>3.8</v>
@@ -53232,24 +53239,24 @@
         <v>203</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H192" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I192" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J192" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B193" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C193" s="56" t="n">
         <v>3.8</v>
@@ -53264,24 +53271,24 @@
         <v>203</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H193" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I193" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J193" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B194" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C194" s="56" t="n">
         <v>3.8</v>
@@ -53296,24 +53303,24 @@
         <v>219</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H194" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I194" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J194" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B195" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C195" s="56" t="n">
         <v>3.8</v>
@@ -53328,24 +53335,24 @@
         <v>219</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H195" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I195" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J195" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B196" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C196" s="56" t="n">
         <v>3.8</v>
@@ -53360,16 +53367,16 @@
         <v>219</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H196" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I196" s="0" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J196" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53377,7 +53384,7 @@
         <v>245</v>
       </c>
       <c r="B197" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C197" s="56" t="n">
         <v>5</v>
@@ -53392,16 +53399,16 @@
         <v>193</v>
       </c>
       <c r="G197" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H197" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I197" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J197" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53409,7 +53416,7 @@
         <v>245</v>
       </c>
       <c r="B198" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C198" s="56" t="n">
         <v>5</v>
@@ -53424,16 +53431,16 @@
         <v>193</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H198" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I198" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J198" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53441,7 +53448,7 @@
         <v>245</v>
       </c>
       <c r="B199" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C199" s="56" t="n">
         <v>5</v>
@@ -53456,16 +53463,16 @@
         <v>193</v>
       </c>
       <c r="G199" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H199" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I199" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J199" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53473,7 +53480,7 @@
         <v>245</v>
       </c>
       <c r="B200" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C200" s="56" t="n">
         <v>5</v>
@@ -53488,16 +53495,16 @@
         <v>193</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H200" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I200" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J200" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53505,7 +53512,7 @@
         <v>245</v>
       </c>
       <c r="B201" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C201" s="56" t="n">
         <v>5</v>
@@ -53520,16 +53527,16 @@
         <v>193</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H201" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I201" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J201" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53537,7 +53544,7 @@
         <v>245</v>
       </c>
       <c r="B202" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C202" s="56" t="n">
         <v>5</v>
@@ -53552,24 +53559,24 @@
         <v>193</v>
       </c>
       <c r="G202" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H202" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I202" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J202" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B203" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C203" s="56" t="n">
         <v>5</v>
@@ -53584,24 +53591,24 @@
         <v>209</v>
       </c>
       <c r="G203" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H203" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I203" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J203" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B204" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C204" s="56" t="n">
         <v>5</v>
@@ -53616,24 +53623,24 @@
         <v>209</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H204" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I204" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J204" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B205" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C205" s="56" t="n">
         <v>5</v>
@@ -53648,24 +53655,24 @@
         <v>209</v>
       </c>
       <c r="G205" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H205" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I205" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J205" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B206" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C206" s="56" t="n">
         <v>5</v>
@@ -53680,24 +53687,24 @@
         <v>209</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H206" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I206" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J206" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B207" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C207" s="56" t="n">
         <v>5</v>
@@ -53712,24 +53719,24 @@
         <v>209</v>
       </c>
       <c r="G207" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H207" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I207" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J207" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B208" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C208" s="56" t="n">
         <v>5</v>
@@ -53744,24 +53751,24 @@
         <v>209</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H208" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I208" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J208" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B209" s="57" t="s">
         <v>255</v>
-      </c>
-      <c r="B209" s="57" t="s">
-        <v>256</v>
       </c>
       <c r="C209" s="56" t="n">
         <v>5</v>
@@ -53776,24 +53783,24 @@
         <v>225</v>
       </c>
       <c r="G209" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H209" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I209" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J209" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B210" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C210" s="56" t="n">
         <v>5</v>
@@ -53808,24 +53815,24 @@
         <v>225</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H210" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I210" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J210" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B211" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C211" s="56" t="n">
         <v>5</v>
@@ -53840,24 +53847,24 @@
         <v>225</v>
       </c>
       <c r="G211" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H211" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I211" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J211" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B212" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C212" s="56" t="n">
         <v>5</v>
@@ -53872,24 +53879,24 @@
         <v>225</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H212" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I212" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J212" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B213" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C213" s="56" t="n">
         <v>5</v>
@@ -53904,24 +53911,24 @@
         <v>225</v>
       </c>
       <c r="G213" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H213" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I213" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J213" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B214" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C214" s="56" t="n">
         <v>5</v>
@@ -53936,16 +53943,16 @@
         <v>225</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H214" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I214" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J214" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53953,7 +53960,7 @@
         <v>245</v>
       </c>
       <c r="B215" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C215" s="56" t="n">
         <v>5</v>
@@ -53968,16 +53975,16 @@
         <v>192</v>
       </c>
       <c r="G215" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H215" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I215" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J215" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -53985,7 +53992,7 @@
         <v>245</v>
       </c>
       <c r="B216" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C216" s="56" t="n">
         <v>5</v>
@@ -54000,16 +54007,16 @@
         <v>192</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H216" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I216" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J216" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54017,7 +54024,7 @@
         <v>245</v>
       </c>
       <c r="B217" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C217" s="56" t="n">
         <v>5</v>
@@ -54032,24 +54039,24 @@
         <v>192</v>
       </c>
       <c r="G217" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H217" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I217" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J217" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B218" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C218" s="56" t="n">
         <v>5</v>
@@ -54064,24 +54071,24 @@
         <v>208</v>
       </c>
       <c r="G218" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H218" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I218" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J218" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B219" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C219" s="56" t="n">
         <v>5</v>
@@ -54096,24 +54103,24 @@
         <v>208</v>
       </c>
       <c r="G219" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H219" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I219" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J219" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B220" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C220" s="56" t="n">
         <v>5</v>
@@ -54128,24 +54135,24 @@
         <v>208</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H220" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I220" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J220" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B221" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C221" s="56" t="n">
         <v>5</v>
@@ -54160,24 +54167,24 @@
         <v>224</v>
       </c>
       <c r="G221" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H221" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I221" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J221" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B222" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C222" s="56" t="n">
         <v>5</v>
@@ -54192,24 +54199,24 @@
         <v>224</v>
       </c>
       <c r="G222" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H222" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I222" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J222" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B223" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C223" s="56" t="n">
         <v>5</v>
@@ -54224,16 +54231,16 @@
         <v>224</v>
       </c>
       <c r="G223" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H223" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I223" s="0" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J223" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54241,13 +54248,13 @@
         <v>245</v>
       </c>
       <c r="B224" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C224" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D224" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E224" s="47" t="n">
         <v>4164</v>
@@ -54256,16 +54263,16 @@
         <v>231</v>
       </c>
       <c r="G224" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H224" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I224" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J224" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54273,13 +54280,13 @@
         <v>245</v>
       </c>
       <c r="B225" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C225" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D225" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E225" s="47" t="n">
         <v>4164</v>
@@ -54288,16 +54295,16 @@
         <v>231</v>
       </c>
       <c r="G225" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H225" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I225" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J225" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54305,13 +54312,13 @@
         <v>245</v>
       </c>
       <c r="B226" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C226" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D226" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E226" s="47" t="n">
         <v>4164</v>
@@ -54320,16 +54327,16 @@
         <v>231</v>
       </c>
       <c r="G226" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H226" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I226" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J226" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54337,13 +54344,13 @@
         <v>245</v>
       </c>
       <c r="B227" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C227" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D227" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E227" s="47" t="n">
         <v>4164</v>
@@ -54352,16 +54359,16 @@
         <v>231</v>
       </c>
       <c r="G227" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H227" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I227" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J227" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54369,13 +54376,13 @@
         <v>245</v>
       </c>
       <c r="B228" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C228" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D228" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E228" s="47" t="n">
         <v>4164</v>
@@ -54384,16 +54391,16 @@
         <v>231</v>
       </c>
       <c r="G228" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H228" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I228" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J228" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54401,13 +54408,13 @@
         <v>245</v>
       </c>
       <c r="B229" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C229" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D229" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E229" s="47" t="n">
         <v>4164</v>
@@ -54416,30 +54423,30 @@
         <v>231</v>
       </c>
       <c r="G229" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H229" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I229" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J229" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B230" s="57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C230" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D230" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E230" s="47" t="n">
         <v>4184</v>
@@ -54448,30 +54455,30 @@
         <v>234</v>
       </c>
       <c r="G230" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H230" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I230" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J230" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B231" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C231" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D231" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E231" s="47" t="n">
         <v>4184</v>
@@ -54480,30 +54487,30 @@
         <v>234</v>
       </c>
       <c r="G231" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H231" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I231" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J231" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B232" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C232" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D232" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E232" s="47" t="n">
         <v>4184</v>
@@ -54512,30 +54519,30 @@
         <v>234</v>
       </c>
       <c r="G232" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H232" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I232" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J232" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B233" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C233" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D233" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E233" s="47" t="n">
         <v>4184</v>
@@ -54544,30 +54551,30 @@
         <v>234</v>
       </c>
       <c r="G233" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H233" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I233" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J233" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B234" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C234" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D234" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E234" s="47" t="n">
         <v>4184</v>
@@ -54576,30 +54583,30 @@
         <v>234</v>
       </c>
       <c r="G234" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H234" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I234" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J234" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B235" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C235" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D235" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E235" s="47" t="n">
         <v>4184</v>
@@ -54608,30 +54615,30 @@
         <v>234</v>
       </c>
       <c r="G235" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H235" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I235" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J235" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="49" t="s">
+        <v>254</v>
+      </c>
+      <c r="B236" s="57" t="s">
         <v>255</v>
-      </c>
-      <c r="B236" s="57" t="s">
-        <v>256</v>
       </c>
       <c r="C236" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D236" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E236" s="47" t="n">
         <v>4204</v>
@@ -54640,30 +54647,30 @@
         <v>228</v>
       </c>
       <c r="G236" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H236" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I236" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J236" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B237" s="57" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C237" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D237" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E237" s="47" t="n">
         <v>4204</v>
@@ -54672,30 +54679,30 @@
         <v>228</v>
       </c>
       <c r="G237" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H237" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I237" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J237" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B238" s="57" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C238" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D238" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E238" s="47" t="n">
         <v>4204</v>
@@ -54704,30 +54711,30 @@
         <v>228</v>
       </c>
       <c r="G238" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H238" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I238" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J238" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B239" s="57" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C239" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D239" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E239" s="47" t="n">
         <v>4204</v>
@@ -54736,30 +54743,30 @@
         <v>228</v>
       </c>
       <c r="G239" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H239" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I239" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J239" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B240" s="57" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C240" s="56" t="n">
         <v>7</v>
       </c>
       <c r="D240" s="56" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E240" s="47" t="n">
         <v>4204</v>
@@ -54768,24 +54775,24 @@
         <v>228</v>
       </c>
       <c r="G240" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H240" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I240" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J240" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B241" s="57" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C241" s="56" t="n">
         <v>7</v>
@@ -54800,16 +54807,16 @@
         <v>228</v>
       </c>
       <c r="G241" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H241" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I241" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J241" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54817,7 +54824,7 @@
         <v>245</v>
       </c>
       <c r="B242" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C242" s="56" t="n">
         <v>7</v>
@@ -54832,16 +54839,16 @@
         <v>230</v>
       </c>
       <c r="G242" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H242" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I242" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J242" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54849,7 +54856,7 @@
         <v>245</v>
       </c>
       <c r="B243" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C243" s="56" t="n">
         <v>7</v>
@@ -54864,16 +54871,16 @@
         <v>230</v>
       </c>
       <c r="G243" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H243" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I243" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J243" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -54881,7 +54888,7 @@
         <v>245</v>
       </c>
       <c r="B244" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C244" s="56" t="n">
         <v>7</v>
@@ -54896,24 +54903,24 @@
         <v>230</v>
       </c>
       <c r="G244" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H244" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I244" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J244" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B245" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C245" s="56" t="n">
         <v>7</v>
@@ -54928,24 +54935,24 @@
         <v>233</v>
       </c>
       <c r="G245" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H245" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I245" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J245" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B246" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C246" s="56" t="n">
         <v>7</v>
@@ -54960,24 +54967,24 @@
         <v>233</v>
       </c>
       <c r="G246" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H246" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I246" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J246" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B247" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C247" s="56" t="n">
         <v>7</v>
@@ -54992,24 +54999,24 @@
         <v>233</v>
       </c>
       <c r="G247" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H247" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I247" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J247" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B248" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C248" s="56" t="n">
         <v>7</v>
@@ -55024,24 +55031,24 @@
         <v>227</v>
       </c>
       <c r="G248" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H248" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I248" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J248" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B249" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C249" s="56" t="n">
         <v>7</v>
@@ -55056,24 +55063,24 @@
         <v>227</v>
       </c>
       <c r="G249" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H249" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I249" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J249" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B250" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C250" s="56" t="n">
         <v>7</v>
@@ -55088,16 +55095,16 @@
         <v>227</v>
       </c>
       <c r="G250" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H250" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I250" s="0" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J250" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55105,13 +55112,13 @@
         <v>245</v>
       </c>
       <c r="B251" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C251" s="47" t="n">
         <v>10</v>
       </c>
       <c r="D251" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E251" s="47" t="n">
         <v>4216</v>
@@ -55120,16 +55127,16 @@
         <v>229</v>
       </c>
       <c r="G251" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H251" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I251" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J251" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55137,13 +55144,13 @@
         <v>245</v>
       </c>
       <c r="B252" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C252" s="47" t="n">
         <v>10</v>
       </c>
       <c r="D252" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E252" s="47" t="n">
         <v>4216</v>
@@ -55152,16 +55159,16 @@
         <v>229</v>
       </c>
       <c r="G252" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H252" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I252" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J252" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55169,13 +55176,13 @@
         <v>245</v>
       </c>
       <c r="B253" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C253" s="47" t="n">
         <v>10</v>
       </c>
       <c r="D253" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E253" s="47" t="n">
         <v>4216</v>
@@ -55184,30 +55191,30 @@
         <v>229</v>
       </c>
       <c r="G253" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H253" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I253" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J253" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B254" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C254" s="47" t="n">
         <v>10</v>
       </c>
       <c r="D254" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E254" s="47" t="n">
         <v>4217</v>
@@ -55216,30 +55223,30 @@
         <v>232</v>
       </c>
       <c r="G254" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H254" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I254" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J254" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B255" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C255" s="47" t="n">
         <v>10</v>
       </c>
       <c r="D255" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E255" s="47" t="n">
         <v>4217</v>
@@ -55248,30 +55255,30 @@
         <v>232</v>
       </c>
       <c r="G255" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H255" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I255" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J255" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B256" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C256" s="47" t="n">
         <v>10</v>
       </c>
       <c r="D256" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E256" s="47" t="n">
         <v>4217</v>
@@ -55280,30 +55287,30 @@
         <v>232</v>
       </c>
       <c r="G256" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H256" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I256" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J256" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B257" s="57" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C257" s="47" t="n">
         <v>10</v>
       </c>
       <c r="D257" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E257" s="47" t="n">
         <v>4218</v>
@@ -55312,30 +55319,30 @@
         <v>235</v>
       </c>
       <c r="G257" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H257" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I257" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J257" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B258" s="57" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C258" s="47" t="n">
         <v>10</v>
       </c>
       <c r="D258" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E258" s="47" t="n">
         <v>4218</v>
@@ -55344,30 +55351,30 @@
         <v>235</v>
       </c>
       <c r="G258" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H258" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I258" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J258" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="49" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B259" s="57" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C259" s="47" t="n">
         <v>10</v>
       </c>
       <c r="D259" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E259" s="47" t="n">
         <v>4218</v>
@@ -55376,19 +55383,20 @@
         <v>235</v>
       </c>
       <c r="G259" s="0" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H259" s="0" t="s">
         <v>248</v>
       </c>
       <c r="I259" s="0" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J259" s="0" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J259"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.3"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -55396,6 +55404,7 @@
     <oddHeader/>
     <oddFooter>&amp;L&amp;1#&amp;10 Non-Confidential - Mars, Incorporated</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -55412,25 +55421,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.3522267206478"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="26.995951417004"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>279</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -55458,20 +55467,20 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="47" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="34.5991902834008"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="35.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="47" width="18.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="60" t="s">
         <v>281</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="C1" s="61" t="s">
         <v>282</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -55498,10 +55507,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.0283400809717"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -55510,7 +55519,7 @@
         <v>246</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55518,103 +55527,103 @@
         <v>249</v>
       </c>
       <c r="B2" s="62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B3" s="62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B4" s="62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="62" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B5" s="62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B6" s="64" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="62" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B7" s="62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="62" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B8" s="62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="62" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B9" s="62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="62" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B10" s="62" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="64" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="62" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B12" s="62" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="62" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="62" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -55641,18 +55650,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="42.3117408906883"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="43.4898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="65" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="58" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -55662,22 +55671,22 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="58" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="58" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="58" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="58" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Projects/MARSRU2_SAND/Data/2019/MARS KPIs.xlsx
+++ b/Projects/MARSRU2_SAND/Data/2019/MARS KPIs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs_Grocery" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
@@ -34,6 +34,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AA$56</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
@@ -48,16 +49,16 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AA$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
@@ -82,6 +83,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AA$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'4317'!$A$1:$C$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
@@ -104,10 +106,11 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -119,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3048" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3053" uniqueCount="346">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -430,6 +433,9 @@
   </si>
   <si>
     <t xml:space="preserve">MAN in CAT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mars</t>
   </si>
   <si>
     <t xml:space="preserve">Суммарный размер выкладки всей категории (в метрах)на всех полках для категорий кошки (включая лакомства на основной полке, БЕЗ НАПОЛНИТЕЛЕЙ)</t>
@@ -714,9 +720,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hanger MARS Cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mars</t>
   </si>
   <si>
     <t xml:space="preserve">Количество навесок с лакомтсвами собак (dentastix)</t>
@@ -1714,28 +1717,28 @@
   </sheetPr>
   <dimension ref="A1:AA56"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="I42" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D38" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="I1" activeCellId="0" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A42" activeCellId="0" sqref="A42"/>
-      <selection pane="bottomRight" activeCell="I38" activeCellId="1" sqref="B57:B60 I38"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A38" activeCellId="0" sqref="A38"/>
+      <selection pane="bottomRight" activeCell="A42" activeCellId="0" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="101.761133603239"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="71.4493927125506"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="102.728744939271"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="72.0890688259109"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="27" min="19" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="9.10526315789474"/>
   </cols>
@@ -3068,7 +3071,9 @@
       <c r="O23" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P23" s="10"/>
+      <c r="P23" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="Q23" s="10" t="s">
         <v>36</v>
       </c>
@@ -3101,10 +3106,10 @@
         <v>28</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I24" s="10" t="s">
         <v>91</v>
@@ -3158,16 +3163,16 @@
         <v>28</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K25" s="10" t="s">
         <v>80</v>
@@ -3180,7 +3185,7 @@
       </c>
       <c r="N25" s="10"/>
       <c r="O25" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
@@ -3215,10 +3220,10 @@
         <v>28</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I26" s="10" t="s">
         <v>91</v>
@@ -3230,7 +3235,7 @@
         <v>33</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M26" s="10" t="n">
         <v>0</v>
@@ -3239,7 +3244,9 @@
       <c r="O26" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P26" s="10"/>
+      <c r="P26" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="Q26" s="10" t="s">
         <v>36</v>
       </c>
@@ -3272,10 +3279,10 @@
         <v>28</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>91</v>
@@ -3326,19 +3333,19 @@
         <v>27</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K28" s="10" t="s">
         <v>80</v>
@@ -3379,19 +3386,19 @@
         <v>27</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G29" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="10" t="s">
         <v>110</v>
-      </c>
-      <c r="H29" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="I29" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J29" s="10" t="s">
-        <v>109</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>80</v>
@@ -3432,19 +3439,19 @@
         <v>27</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>80</v>
@@ -3485,19 +3492,19 @@
         <v>27</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H31" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K31" s="10" t="s">
         <v>80</v>
@@ -3541,16 +3548,16 @@
         <v>28</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K32" s="10" t="s">
         <v>80</v>
@@ -3563,7 +3570,7 @@
       </c>
       <c r="N32" s="10"/>
       <c r="O32" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
@@ -3598,16 +3605,16 @@
         <v>76</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K33" s="10" t="s">
         <v>80</v>
@@ -3620,7 +3627,7 @@
       </c>
       <c r="N33" s="10"/>
       <c r="O33" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P33" s="10"/>
       <c r="Q33" s="10" t="s">
@@ -3628,14 +3635,14 @@
       </c>
       <c r="R33" s="10"/>
       <c r="S33" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="T33" s="10"/>
       <c r="U33" s="10"/>
       <c r="V33" s="10"/>
       <c r="W33" s="10"/>
       <c r="X33" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
@@ -3659,16 +3666,16 @@
         <v>76</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K34" s="10" t="s">
         <v>80</v>
@@ -3681,7 +3688,9 @@
       <c r="O34" s="10" t="n">
         <v>4306</v>
       </c>
-      <c r="P34" s="10"/>
+      <c r="P34" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
@@ -3709,19 +3718,19 @@
         <v>27</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K35" s="10" t="s">
         <v>80</v>
@@ -3762,19 +3771,19 @@
         <v>27</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K36" s="10" t="s">
         <v>80</v>
@@ -3815,19 +3824,19 @@
         <v>27</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K37" s="10" t="s">
         <v>80</v>
@@ -3868,19 +3877,19 @@
         <v>27</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>80</v>
@@ -3924,16 +3933,16 @@
         <v>76</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>80</v>
@@ -3977,16 +3986,16 @@
         <v>76</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>80</v>
@@ -4030,16 +4039,16 @@
         <v>76</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K41" s="10" t="s">
         <v>80</v>
@@ -4083,10 +4092,10 @@
         <v>76</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>79</v>
@@ -4101,7 +4110,7 @@
       <c r="M42" s="10"/>
       <c r="N42" s="10"/>
       <c r="O42" s="15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P42" s="15"/>
       <c r="Q42" s="10" t="s">
@@ -4136,10 +4145,10 @@
         <v>76</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="I43" s="10" t="s">
         <v>79</v>
@@ -4154,7 +4163,7 @@
       <c r="M43" s="10"/>
       <c r="N43" s="10"/>
       <c r="O43" s="13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P43" s="10"/>
       <c r="Q43" s="10" t="s">
@@ -4189,13 +4198,13 @@
         <v>76</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J44" s="10"/>
       <c r="K44" s="10" t="s">
@@ -4207,7 +4216,7 @@
       <c r="M44" s="10"/>
       <c r="N44" s="10"/>
       <c r="O44" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P44" s="10"/>
       <c r="Q44" s="10" t="s">
@@ -4222,7 +4231,7 @@
       <c r="V44" s="10"/>
       <c r="W44" s="10"/>
       <c r="X44" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y44" s="10"/>
       <c r="Z44" s="10"/>
@@ -4243,16 +4252,16 @@
         <v>27</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J45" s="10"/>
       <c r="K45" s="10" t="s">
@@ -4264,7 +4273,7 @@
       <c r="M45" s="10"/>
       <c r="N45" s="10"/>
       <c r="O45" s="13" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P45" s="10"/>
       <c r="Q45" s="10" t="s">
@@ -4296,16 +4305,16 @@
         <v>27</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J46" s="10"/>
       <c r="K46" s="10" t="s">
@@ -4349,16 +4358,16 @@
         <v>27</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J47" s="10"/>
       <c r="K47" s="10" t="s">
@@ -4370,11 +4379,11 @@
       <c r="M47" s="10"/>
       <c r="N47" s="10"/>
       <c r="O47" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P47" s="10"/>
       <c r="Q47" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
@@ -4402,19 +4411,19 @@
         <v>27</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>42</v>
@@ -4425,12 +4434,12 @@
       <c r="M48" s="10"/>
       <c r="N48" s="10"/>
       <c r="O48" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="10"/>
       <c r="R48" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="S48" s="10"/>
       <c r="T48" s="10"/>
@@ -4455,19 +4464,19 @@
         <v>27</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>42</v>
@@ -4478,14 +4487,14 @@
       <c r="M49" s="10"/>
       <c r="N49" s="10"/>
       <c r="O49" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P49" s="10" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="Q49" s="10"/>
       <c r="R49" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S49" s="10" t="s">
         <v>35</v>
@@ -4512,7 +4521,7 @@
         <v>27</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G50" s="10" t="s">
         <v>168</v>
@@ -4521,10 +4530,10 @@
         <v>169</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>42</v>
@@ -4538,7 +4547,7 @@
         <v>170</v>
       </c>
       <c r="P50" s="10" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="Q50" s="10"/>
       <c r="R50" s="10" t="s">
@@ -4569,7 +4578,7 @@
         <v>27</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>171</v>
@@ -4581,7 +4590,7 @@
         <v>173</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K51" s="10" t="s">
         <v>80</v>
@@ -4597,7 +4606,7 @@
         <v>174</v>
       </c>
       <c r="P51" s="10" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="Q51" s="10"/>
       <c r="R51" s="10" t="s">
@@ -4626,7 +4635,7 @@
         <v>27</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G52" s="10" t="s">
         <v>175</v>
@@ -4638,7 +4647,7 @@
         <v>173</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K52" s="10" t="s">
         <v>80</v>
@@ -4654,7 +4663,7 @@
         <v>177</v>
       </c>
       <c r="P52" s="10" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="Q52" s="10"/>
       <c r="R52" s="10" t="s">
@@ -4683,19 +4692,19 @@
         <v>27</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G53" s="10" t="s">
         <v>178</v>
       </c>
       <c r="H53" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K53" s="10" t="s">
         <v>80</v>
@@ -4734,19 +4743,19 @@
         <v>27</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G54" s="10" t="s">
         <v>179</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K54" s="10" t="s">
         <v>80</v>
@@ -4785,19 +4794,19 @@
         <v>27</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G55" s="10" t="s">
         <v>180</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K55" s="10" t="s">
         <v>80</v>
@@ -4836,19 +4845,19 @@
         <v>27</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G56" s="10" t="s">
         <v>181</v>
       </c>
       <c r="H56" s="13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K56" s="10" t="s">
         <v>80</v>
@@ -4895,14 +4904,14 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B57:B60 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="19" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.8825910931174"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -4936,15 +4945,15 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B22" activeCellId="1" sqref="B57:B60 B22"/>
+      <selection pane="topLeft" activeCell="B22" activeCellId="0" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.2429149797571"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.5991902834008"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.5627530364372"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.8137651821862"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.8866396761134"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5079,12 +5088,12 @@
   <dimension ref="A1:A65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="1" sqref="B57:B60 A18"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.5222672064777"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5149,27 +5158,27 @@
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A12" activeCellId="1" sqref="B57:B60 A12"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="A25" activeCellId="0" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="5" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="29.5668016194332"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="101.761133603239"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="71.4493927125506"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="29.7773279352227"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="102.728744939271"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="72.0890688259109"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="14" min="11" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="3" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="16" min="16" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="17" min="17" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="18" min="18" style="2" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="27" min="19" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="28" style="1" width="9.10526315789474"/>
   </cols>
@@ -5270,19 +5279,19 @@
         <v>182</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K2" s="10" t="s">
         <v>42</v>
@@ -5293,14 +5302,14 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P2" s="10" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="Q2" s="10"/>
       <c r="R2" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="S2" s="10" t="s">
         <v>35</v>
@@ -5327,7 +5336,7 @@
         <v>182</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>168</v>
@@ -5336,10 +5345,10 @@
         <v>169</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>42</v>
@@ -5353,7 +5362,7 @@
         <v>170</v>
       </c>
       <c r="P3" s="10" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="Q3" s="10"/>
       <c r="R3" s="10" t="s">
@@ -5384,19 +5393,19 @@
         <v>182</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>183</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K4" s="10" t="s">
         <v>80</v>
@@ -5435,19 +5444,19 @@
         <v>182</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>184</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K5" s="10" t="s">
         <v>80</v>
@@ -5486,19 +5495,19 @@
         <v>182</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>185</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>80</v>
@@ -5566,7 +5575,9 @@
       <c r="O7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P7" s="10"/>
+      <c r="P7" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="Q7" s="10" t="s">
         <v>36</v>
       </c>
@@ -5599,7 +5610,7 @@
         <v>28</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>186</v>
@@ -5656,10 +5667,10 @@
         <v>28</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>91</v>
@@ -5671,7 +5682,7 @@
         <v>33</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M9" s="10" t="n">
         <v>0</v>
@@ -5680,7 +5691,9 @@
       <c r="O9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P9" s="10"/>
+      <c r="P9" s="10" t="s">
+        <v>93</v>
+      </c>
       <c r="Q9" s="10" t="s">
         <v>36</v>
       </c>
@@ -5795,7 +5808,7 @@
         <v>45</v>
       </c>
       <c r="P11" s="10" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="Q11" s="10"/>
       <c r="R11" s="10"/>
@@ -5928,19 +5941,19 @@
         <v>182</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>196</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K14" s="10" t="s">
         <v>80</v>
@@ -5981,7 +5994,7 @@
         <v>182</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>198</v>
@@ -6038,7 +6051,7 @@
         <v>182</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>200</v>
@@ -6095,7 +6108,7 @@
         <v>182</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>201</v>
@@ -6152,7 +6165,7 @@
         <v>182</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G18" s="10" t="s">
         <v>202</v>
@@ -6209,7 +6222,7 @@
         <v>182</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>203</v>
@@ -6266,7 +6279,7 @@
         <v>182</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>204</v>
@@ -6323,7 +6336,7 @@
         <v>182</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>205</v>
@@ -6384,13 +6397,13 @@
         <v>206</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K22" s="10" t="s">
         <v>80</v>
@@ -6432,16 +6445,16 @@
         <v>76</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K23" s="10" t="s">
         <v>80</v>
@@ -6488,10 +6501,10 @@
         <v>207</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="J24" s="10"/>
       <c r="K24" s="10" t="s">
@@ -6503,7 +6516,7 @@
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
       <c r="O24" s="13" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="10" t="s">
@@ -6518,7 +6531,7 @@
       <c r="V24" s="10"/>
       <c r="W24" s="10"/>
       <c r="X24" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
@@ -6593,16 +6606,16 @@
         <v>76</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K26" s="10" t="s">
         <v>80</v>
@@ -6677,7 +6690,7 @@
     </row>
     <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AA3"/>
+  <autoFilter ref="A1:AA27"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6697,13 +6710,13 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="1" sqref="B57:B60 B2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.5222672064777"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="51.9514170040486"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -6878,14 +6891,14 @@
   <dimension ref="1:58"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="1" sqref="B57:B60 B30"/>
+      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="19" width="9"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7742,13 +7755,13 @@
   <dimension ref="1:2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="1" sqref="B57:B60 A6"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="35.8866396761134"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="36.8502024291498"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7810,21 +7823,21 @@
   </sheetPr>
   <dimension ref="1:301"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57:B60"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="21" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="45.8461538461538"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="46.2753036437247"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="19" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.1336032388664"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.3481781376518"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.3522267206478"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -17311,12 +17324,12 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B57:B60 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.4939271255061"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -17349,7 +17362,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="B57:B60 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -17387,15 +17400,15 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B57:B60 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.4574898785425"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MARSRU2_SAND/Data/2019/MARS KPIs.xlsx
+++ b/Projects/MARSRU2_SAND/Data/2019/MARS KPIs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs_Grocery" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,6 +36,8 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AC$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AC$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AC$1</definedName>
@@ -51,7 +53,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AC$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AC$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
@@ -62,7 +64,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
@@ -86,6 +88,8 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'4317'!$A$1:$C$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
@@ -110,10 +114,12 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -187,7 +193,7 @@
     <t xml:space="preserve">Scene type</t>
   </si>
   <si>
-    <t xml:space="preserve">Brand Category value</t>
+    <t xml:space="preserve">Category</t>
   </si>
   <si>
     <t xml:space="preserve">Sub brand to include</t>
@@ -779,7 +785,7 @@
     <t xml:space="preserve">Non-MARS KPIs</t>
   </si>
   <si>
-    <t xml:space="preserve">Суммарный размер выкладки Другие производители (в метрах) на всех полках для категорий кошки (включая лакомства на основной полке, БЕЗ Liter)</t>
+    <t xml:space="preserve">Суммарный размер выкладки Другие производители (в метрах) на всех полках для категорий кошки (включая лакомства на основной полке БЕЗ Liter)</t>
   </si>
   <si>
     <t xml:space="preserve">The total size of the display layout of Nestle (in meters) on main shelf only for CAT FOOD (including C&amp;T on the main shelf and does not include filler). Stacked products are not included.</t>
@@ -1783,30 +1789,30 @@
   </sheetPr>
   <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D47" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A47" activeCellId="0" sqref="A47"/>
-      <selection pane="bottomRight" activeCell="D57" activeCellId="0" sqref="D57"/>
+      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="U1" activeCellId="0" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="22.9311740890688"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="7" min="5" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="103.692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="72.7327935222672"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="105.51012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="74.0202429149798"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="13" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="37.919028340081"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="29" min="21" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="30" style="1" width="9.10526315789474"/>
   </cols>
@@ -5450,9 +5456,7 @@
       <c r="N59" s="10" t="n">
         <v>0.3</v>
       </c>
-      <c r="O59" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="O59" s="10"/>
       <c r="P59" s="10"/>
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
@@ -5508,7 +5512,7 @@
         <v>10</v>
       </c>
       <c r="O60" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P60" s="10"/>
       <c r="Q60" s="10"/>
@@ -5569,7 +5573,7 @@
         <v>10</v>
       </c>
       <c r="O61" s="10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" s="10"/>
       <c r="Q61" s="10"/>
@@ -5627,9 +5631,7 @@
       <c r="N62" s="10" t="n">
         <v>0.3</v>
       </c>
-      <c r="O62" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="O62" s="10"/>
       <c r="P62" s="10"/>
       <c r="Q62" s="10"/>
       <c r="R62" s="10"/>
@@ -5682,9 +5684,7 @@
       <c r="N63" s="10" t="n">
         <v>0.3</v>
       </c>
-      <c r="O63" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="O63" s="10"/>
       <c r="P63" s="10"/>
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
@@ -5727,8 +5727,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="19" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.2064777327935"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.9554655870445"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="21.1012145748988"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5767,10 +5767,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="38.8825910931174"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.0283400809717"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5263157894737"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.668016194332"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.17004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5910,7 +5910,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.3805668016194"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.2388663967611"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5974,31 +5974,31 @@
   </sheetPr>
   <dimension ref="A1:AC65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D17" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
-      <selection pane="bottomRight" activeCell="A28" activeCellId="0" sqref="A28"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="U2" activeCellId="0" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="22.9311740890688"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="18.7368421052632"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="18.9595141700405"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="103.692307692308"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="72.7327935222672"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="105.51012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="74.0202429149798"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="31.17004048583"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="13" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="37.919028340081"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="29" min="21" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="30" style="1" width="9.10526315789474"/>
   </cols>
@@ -7739,8 +7739,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="52.3805668016194"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.246963562753"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7921,8 +7921,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="19" width="9"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="37.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8784,8 +8784,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="36.5263157894737"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="37.919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8854,14 +8854,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="21" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="46.5951417004049"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="31.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="47.2388663967611"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="31.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="19" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="35.5627530364373"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.2064777327935"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="26.7813765182186"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.2064777327935"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -18353,7 +18353,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -18429,10 +18429,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.2064777327935"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.5627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MARSRU2_SAND/Data/2019/MARS KPIs.xlsx
+++ b/Projects/MARSRU2_SAND/Data/2019/MARS KPIs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs_Grocery" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AC$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
@@ -38,6 +38,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AC$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AC$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AC$1</definedName>
@@ -55,17 +56,17 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
@@ -90,6 +91,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'4317'!$A$1:$C$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
@@ -116,10 +118,11 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -131,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3291" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3293" uniqueCount="367">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -1789,30 +1792,30 @@
   </sheetPr>
   <dimension ref="A1:AC63"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="K56" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="N1" activeCellId="0" sqref="N1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U1" activeCellId="0" sqref="U1"/>
+      <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
+      <selection pane="bottomRight" activeCell="K23" activeCellId="0" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="7" min="5" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="105.51012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="74.0202429149798"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="106.477732793522"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="74.6599190283401"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="13" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="38.2429149797571"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="29" min="21" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="30" style="1" width="9.10526315789474"/>
   </cols>
@@ -5503,7 +5506,7 @@
         <v>101</v>
       </c>
       <c r="L60" s="10" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="M60" s="10" t="s">
         <v>45</v>
@@ -5515,7 +5518,9 @@
         <v>1</v>
       </c>
       <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
+      <c r="Q60" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="R60" s="10" t="s">
         <v>188</v>
       </c>
@@ -5564,7 +5569,7 @@
         <v>101</v>
       </c>
       <c r="L61" s="10" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="M61" s="10" t="s">
         <v>45</v>
@@ -5576,7 +5581,9 @@
         <v>1</v>
       </c>
       <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
+      <c r="Q61" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="R61" s="10" t="s">
         <v>96</v>
       </c>
@@ -5701,7 +5708,7 @@
       <c r="AC63" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AC56"/>
+  <autoFilter ref="A1:AC63"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -5727,8 +5734,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="19" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="42.9554655870445"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.3846153846154"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5767,10 +5774,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.5263157894737"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8502024291498"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.9919028340081"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.17004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.4898785425101"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5910,7 +5917,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.2388663967611"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5968,37 +5975,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <tabColor rgb="FFCCFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AC65536"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="U2" activeCellId="0" sqref="U2"/>
+      <selection pane="bottomRight" activeCell="L13" activeCellId="0" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="23.1376518218623"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="18.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="19.1740890688259"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="105.51012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="74.0202429149798"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="31.17004048583"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="106.477732793522"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="74.6599190283401"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="31.4939271255061"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="13" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="38.2429149797571"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="29" min="21" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="30" style="1" width="9.10526315789474"/>
   </cols>
@@ -6092,7 +6099,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="n">
         <v>2019</v>
@@ -6155,7 +6162,7 @@
       <c r="AB2" s="10"/>
       <c r="AC2" s="10"/>
     </row>
-    <row r="3" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="n">
         <v>2019</v>
@@ -6218,7 +6225,7 @@
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="n">
         <v>2019</v>
@@ -6275,7 +6282,7 @@
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="n">
         <v>2019</v>
@@ -6332,7 +6339,7 @@
       <c r="AB5" s="10"/>
       <c r="AC5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="n">
         <v>2019</v>
@@ -6389,7 +6396,7 @@
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
         <v>2261</v>
       </c>
@@ -6454,7 +6461,7 @@
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
         <v>2262</v>
       </c>
@@ -6517,7 +6524,7 @@
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
         <v>2265</v>
       </c>
@@ -6582,7 +6589,7 @@
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
         <v>2266</v>
       </c>
@@ -6645,7 +6652,7 @@
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="n">
         <v>2019</v>
@@ -6826,7 +6833,7 @@
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="n">
         <v>2019</v>
@@ -7324,7 +7331,7 @@
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="n">
         <v>2019</v>
@@ -7381,7 +7388,7 @@
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="n">
         <v>2019</v>
@@ -7438,7 +7445,7 @@
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="n">
         <v>2316</v>
       </c>
@@ -7501,7 +7508,7 @@
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
         <v>229</v>
       </c>
@@ -7560,7 +7567,7 @@
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="n">
         <v>2019</v>
@@ -7617,7 +7624,7 @@
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="n">
         <v>2019</v>
@@ -7714,7 +7721,13 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AC27"/>
+  <autoFilter ref="A1:AC27">
+    <filterColumn colId="11">
+      <customFilters and="true">
+        <customFilter operator="equal" val="SKUs"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7739,8 +7752,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.2388663967611"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7921,8 +7934,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="19" width="9"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="38.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8784,8 +8797,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="37.17004048583"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="37.919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="38.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8854,14 +8867,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="21" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="47.2388663967611"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="31.9230769230769"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="47.5627530364373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="32.1376518218623"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="19" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.2064777327935"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.5263157894737"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.2064777327935"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -18353,7 +18366,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -18429,10 +18442,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1012145748988"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.5303643724696"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.6356275303644"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.5627530364372"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.7773279352227"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>

--- a/Projects/MARSRU2_SAND/Data/2019/MARS KPIs.xlsx
+++ b/Projects/MARSRU2_SAND/Data/2019/MARS KPIs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="KPIs_Grocery" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
     <definedName function="false" hidden="true" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AC$63</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">KPIs_Grocery!$A$1:$AC$63</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
@@ -39,6 +39,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Grocery!$A$1:$AC$56</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AC$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AC$1</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$B$1:$AC$1</definedName>
@@ -57,17 +58,17 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
-    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$27</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
@@ -92,6 +93,7 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">KPIs_Drogerie!$A$1:$AC$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">'4317'!$A$1:$C$54</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
@@ -119,10 +121,11 @@
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
-    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$1:$J$259</definedName>
     <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
+    <definedName function="false" hidden="false" localSheetId="5" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0_0" vbProcedure="false">'4254'!$A$2:$J$260</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -1793,29 +1796,31 @@
   <dimension ref="A1:AC63"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="K56" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
-      <selection pane="bottomLeft" activeCell="A56" activeCellId="0" sqref="A56"/>
-      <selection pane="bottomRight" activeCell="K23" activeCellId="0" sqref="K23"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O22" activeCellId="0" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="7" min="5" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="106.477732793522"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="74.6599190283401"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="107.441295546559"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="75.3036437246964"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="16" min="13" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="14" min="13" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="2" width="19.9878542510121"/>
+    <col collapsed="false" hidden="false" max="16" min="16" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="38.5627530364372"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="29" min="21" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="30" style="1" width="9.10526315789474"/>
   </cols>
@@ -1950,7 +1955,9 @@
       <c r="N2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O2" s="10"/>
+      <c r="O2" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P2" s="10" t="n">
         <v>2</v>
       </c>
@@ -2013,7 +2020,9 @@
       <c r="N3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="10"/>
+      <c r="O3" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P3" s="10" t="n">
         <v>2</v>
       </c>
@@ -3043,7 +3052,9 @@
       <c r="N19" s="10" t="n">
         <v>776682</v>
       </c>
-      <c r="O19" s="10"/>
+      <c r="O19" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P19" s="10" t="n">
         <v>8</v>
       </c>
@@ -3100,7 +3111,9 @@
       <c r="N20" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O20" s="10"/>
+      <c r="O20" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="13" t="s">
         <v>85</v>
@@ -3159,7 +3172,9 @@
       <c r="N21" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O21" s="10"/>
+      <c r="O21" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="P21" s="10"/>
       <c r="Q21" s="13" t="s">
         <v>88</v>
@@ -3218,7 +3233,9 @@
       <c r="N22" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O22" s="10"/>
+      <c r="O22" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P22" s="10"/>
       <c r="Q22" s="13" t="s">
         <v>91</v>
@@ -4436,7 +4453,9 @@
       <c r="N42" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O42" s="10"/>
+      <c r="O42" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="P42" s="10"/>
       <c r="Q42" s="15" t="s">
         <v>140</v>
@@ -4495,7 +4514,9 @@
       <c r="N43" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O43" s="10"/>
+      <c r="O43" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="P43" s="10"/>
       <c r="Q43" s="13" t="s">
         <v>143</v>
@@ -4554,7 +4575,9 @@
       <c r="N44" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O44" s="10"/>
+      <c r="O44" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P44" s="10"/>
       <c r="Q44" s="13" t="s">
         <v>147</v>
@@ -4617,7 +4640,9 @@
       <c r="N45" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O45" s="10"/>
+      <c r="O45" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P45" s="10"/>
       <c r="Q45" s="13" t="s">
         <v>153</v>
@@ -4676,7 +4701,9 @@
       <c r="N46" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O46" s="10"/>
+      <c r="O46" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P46" s="10"/>
       <c r="Q46" s="13" t="s">
         <v>91</v>
@@ -4735,7 +4762,9 @@
       <c r="N47" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O47" s="10"/>
+      <c r="O47" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P47" s="10"/>
       <c r="Q47" s="10" t="s">
         <v>159</v>
@@ -4796,7 +4825,9 @@
       <c r="N48" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="O48" s="10"/>
+      <c r="O48" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P48" s="10"/>
       <c r="Q48" s="10" t="s">
         <v>166</v>
@@ -4855,7 +4886,9 @@
       <c r="N49" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="O49" s="10"/>
+      <c r="O49" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P49" s="10"/>
       <c r="Q49" s="10" t="s">
         <v>170</v>
@@ -4918,7 +4951,9 @@
       <c r="N50" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="O50" s="10"/>
+      <c r="O50" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P50" s="10"/>
       <c r="Q50" s="10" t="s">
         <v>173</v>
@@ -4981,7 +5016,9 @@
       <c r="N51" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O51" s="10"/>
+      <c r="O51" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P51" s="10" t="n">
         <v>1</v>
       </c>
@@ -5044,7 +5081,9 @@
       <c r="N52" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O52" s="10"/>
+      <c r="O52" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P52" s="10" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +5773,8 @@
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="19" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.3846153846154"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.7044534412956"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="21.3157894736842"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5774,10 +5813,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.8502024291498"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="40.17004048583"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="39.3117408906883"/>
     <col collapsed="false" hidden="false" max="5" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.4898785425101"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="37.7044534412955"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5917,7 +5956,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.0931174089069"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5975,7 +6014,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <tabColor rgb="FFCCFF00"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -5986,26 +6025,26 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="K1" activeCellId="0" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L13" activeCellId="0" sqref="L13"/>
+      <selection pane="bottomRight" activeCell="O24" activeCellId="0" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="23.2429149797571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="19.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="7" min="6" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="30.6356275303644"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="106.477732793522"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="74.6599190283401"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="31.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="30.8502024291498"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="107.441295546559"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="75.3036437246964"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="31.7085020242915"/>
     <col collapsed="false" hidden="false" max="12" min="12" style="2" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="16" min="13" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="17" min="17" style="3" width="38.5627530364372"/>
     <col collapsed="false" hidden="false" max="18" min="18" style="3" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="19" min="19" style="2" width="13.497975708502"/>
-    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="20" min="20" style="2" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="29" min="21" style="2" width="13.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="30" style="1" width="9.10526315789474"/>
   </cols>
@@ -6099,7 +6138,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="10"/>
       <c r="B2" s="10" t="n">
         <v>2019</v>
@@ -6138,7 +6177,9 @@
       <c r="N2" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="O2" s="10"/>
+      <c r="O2" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P2" s="10"/>
       <c r="Q2" s="10" t="s">
         <v>170</v>
@@ -6162,7 +6203,7 @@
       <c r="AB2" s="10"/>
       <c r="AC2" s="10"/>
     </row>
-    <row r="3" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="10"/>
       <c r="B3" s="10" t="n">
         <v>2019</v>
@@ -6201,7 +6242,9 @@
       <c r="N3" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="O3" s="10"/>
+      <c r="O3" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P3" s="10"/>
       <c r="Q3" s="10" t="s">
         <v>173</v>
@@ -6225,7 +6268,7 @@
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
     </row>
-    <row r="4" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="n">
         <v>2019</v>
@@ -6282,7 +6325,7 @@
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
     </row>
-    <row r="5" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="n">
         <v>2019</v>
@@ -6339,7 +6382,7 @@
       <c r="AB5" s="10"/>
       <c r="AC5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="n">
         <v>2019</v>
@@ -6396,7 +6439,7 @@
       <c r="AB6" s="10"/>
       <c r="AC6" s="10"/>
     </row>
-    <row r="7" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
         <v>2261</v>
       </c>
@@ -6461,7 +6504,7 @@
       <c r="AB7" s="10"/>
       <c r="AC7" s="10"/>
     </row>
-    <row r="8" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
         <v>2262</v>
       </c>
@@ -6524,7 +6567,7 @@
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
     </row>
-    <row r="9" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
         <v>2265</v>
       </c>
@@ -6589,7 +6632,7 @@
       <c r="AB9" s="10"/>
       <c r="AC9" s="10"/>
     </row>
-    <row r="10" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
         <v>2266</v>
       </c>
@@ -6652,7 +6695,7 @@
       <c r="AB10" s="10"/>
       <c r="AC10" s="10"/>
     </row>
-    <row r="11" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="10"/>
       <c r="B11" s="10" t="n">
         <v>2019</v>
@@ -6833,7 +6876,7 @@
       <c r="AB13" s="10"/>
       <c r="AC13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="n">
         <v>2019</v>
@@ -7331,7 +7374,7 @@
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="n">
         <v>2019</v>
@@ -7388,7 +7431,7 @@
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="n">
         <v>2019</v>
@@ -7445,7 +7488,7 @@
       <c r="AB23" s="10"/>
       <c r="AC23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="n">
         <v>2316</v>
       </c>
@@ -7484,7 +7527,9 @@
       <c r="N24" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O24" s="10"/>
+      <c r="O24" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="13" t="s">
         <v>147</v>
@@ -7508,7 +7553,7 @@
       <c r="AB24" s="10"/>
       <c r="AC24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
         <v>229</v>
       </c>
@@ -7547,7 +7592,9 @@
       <c r="N25" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O25" s="10"/>
+      <c r="O25" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P25" s="10"/>
       <c r="Q25" s="13" t="s">
         <v>91</v>
@@ -7567,7 +7614,7 @@
       <c r="AB25" s="10"/>
       <c r="AC25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="n">
         <v>2019</v>
@@ -7624,7 +7671,7 @@
       <c r="AB26" s="10"/>
       <c r="AC26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="29.95" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="29.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="n">
         <v>2019</v>
@@ -7661,7 +7708,9 @@
       <c r="N27" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="O27" s="10"/>
+      <c r="O27" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
@@ -7721,13 +7770,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:AC27">
-    <filterColumn colId="11">
-      <customFilters and="true">
-        <customFilter operator="equal" val="SKUs"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AC27"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -7752,8 +7795,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="53.668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="54.0931174089069"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -7934,8 +7977,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="19" width="9"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="20" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="21" width="38.5627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8797,8 +8840,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="37.4898785425101"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="38.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="20" width="37.7044534412955"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="38.5627530364372"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -8867,14 +8910,14 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="21" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="47.5627530364373"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="32.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="31.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="21" width="47.9878542510121"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="19" width="32.3481781376518"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="19" width="31.9230769230769"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="19" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.5263157894737"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="36.8502024291498"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="0" width="10.7125506072875"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.6356275303644"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -18366,7 +18409,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
@@ -18442,10 +18485,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.7449392712551"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.7773279352227"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="24.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="32.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
